--- a/outputs/daily_schedule.xlsx
+++ b/outputs/daily_schedule.xlsx
@@ -424,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T187"/>
+  <dimension ref="A1:T177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,7 +497,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="3">
-        <v>45702</v>
+        <v>45712</v>
       </c>
       <c r="B2" s="4">
         <v>100</v>
@@ -559,69 +559,69 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="3">
-        <v>45703</v>
+        <v>45713</v>
       </c>
       <c r="B3" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D3" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E3" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F3" s="4">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="G3" s="4">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="H3" s="4">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="I3" s="4">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="J3" s="4">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="K3" s="4">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="L3" s="4">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="M3" s="4">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N3" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O3" s="4">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P3" s="4">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q3" s="4">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="R3" s="4">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="S3" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="T3" s="4">
-        <v>245</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="3">
-        <v>45705</v>
+        <v>45714</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="3">
-        <v>45706</v>
+        <v>45715</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3">
-        <v>45707</v>
+        <v>45716</v>
       </c>
       <c r="B6" s="4">
         <v>100</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3">
-        <v>45708</v>
+        <v>45717</v>
       </c>
       <c r="B7" s="4">
         <v>100</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="3">
-        <v>45709</v>
+        <v>45719</v>
       </c>
       <c r="B8" s="4">
         <v>100</v>
@@ -931,69 +931,69 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="3">
-        <v>45710</v>
+        <v>45720</v>
       </c>
       <c r="B9" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D9" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E9" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F9" s="4">
-        <v>175</v>
-      </c>
-      <c r="G9" s="4">
-        <v>280</v>
+        <v>250</v>
+      </c>
+      <c r="G9" s="5">
+        <v>400</v>
       </c>
       <c r="H9" s="4">
-        <v>245</v>
-      </c>
-      <c r="I9" s="4">
-        <v>280</v>
+        <v>350</v>
+      </c>
+      <c r="I9" s="5">
+        <v>400</v>
       </c>
       <c r="J9" s="4">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="K9" s="4">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="L9" s="5">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="M9" s="4">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N9" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O9" s="4">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P9" s="4">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q9" s="4">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="R9" s="5">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="S9" s="4">
-        <v>140</v>
-      </c>
-      <c r="T9" s="4">
-        <v>245</v>
+        <v>200</v>
+      </c>
+      <c r="T9" s="5">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="3">
-        <v>45712</v>
+        <v>45721</v>
       </c>
       <c r="B10" s="4">
         <v>100</v>
@@ -1019,7 +1019,7 @@
       <c r="I10" s="5">
         <v>400</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <v>350</v>
       </c>
       <c r="K10" s="4">
@@ -1055,7 +1055,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="3">
-        <v>45713</v>
+        <v>45722</v>
       </c>
       <c r="B11" s="4">
         <v>100</v>
@@ -1075,7 +1075,7 @@
       <c r="G11" s="5">
         <v>400</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>350</v>
       </c>
       <c r="I11" s="5">
@@ -1117,7 +1117,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="3">
-        <v>45714</v>
+        <v>45723</v>
       </c>
       <c r="B12" s="4">
         <v>100</v>
@@ -1164,7 +1164,7 @@
       <c r="P12" s="4">
         <v>250</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="5">
         <v>300</v>
       </c>
       <c r="R12" s="5">
@@ -1179,7 +1179,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="3">
-        <v>45715</v>
+        <v>45724</v>
       </c>
       <c r="B13" s="4">
         <v>100</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="3">
-        <v>45716</v>
+        <v>45726</v>
       </c>
       <c r="B14" s="4">
         <v>100</v>
@@ -1303,69 +1303,69 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="3">
-        <v>45717</v>
+        <v>45727</v>
       </c>
       <c r="B15" s="4">
-        <v>70</v>
-      </c>
-      <c r="C15" s="4">
-        <v>140</v>
+        <v>100</v>
+      </c>
+      <c r="C15" s="5">
+        <v>200</v>
       </c>
       <c r="D15" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E15" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F15" s="4">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="G15" s="5">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="H15" s="5">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="I15" s="5">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="J15" s="5">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="K15" s="5">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="L15" s="5">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="M15" s="4">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N15" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O15" s="4">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P15" s="5">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q15" s="5">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="R15" s="5">
-        <v>315</v>
-      </c>
-      <c r="S15" s="4">
-        <v>140</v>
+        <v>450</v>
+      </c>
+      <c r="S15" s="5">
+        <v>200</v>
       </c>
       <c r="T15" s="5">
-        <v>245</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="3">
-        <v>45719</v>
+        <v>45728</v>
       </c>
       <c r="B16" s="4">
         <v>100</v>
@@ -1379,7 +1379,7 @@
       <c r="E16" s="4">
         <v>100</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>250</v>
       </c>
       <c r="G16" s="5">
@@ -1397,13 +1397,13 @@
       <c r="K16" s="5">
         <v>350</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <v>450</v>
       </c>
       <c r="M16" s="4">
         <v>150</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>200</v>
       </c>
       <c r="O16" s="4">
@@ -1427,7 +1427,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="3">
-        <v>45720</v>
+        <v>45729</v>
       </c>
       <c r="B17" s="4">
         <v>100</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="3">
-        <v>45721</v>
+        <v>45730</v>
       </c>
       <c r="B18" s="4">
         <v>100</v>
@@ -1497,7 +1497,7 @@
       <c r="C18" s="5">
         <v>200</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>200</v>
       </c>
       <c r="E18" s="4">
@@ -1539,7 +1539,7 @@
       <c r="Q18" s="5">
         <v>300</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="6">
         <v>450</v>
       </c>
       <c r="S18" s="5">
@@ -1551,7 +1551,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="3">
-        <v>45722</v>
+        <v>45731</v>
       </c>
       <c r="B19" s="4">
         <v>100</v>
@@ -1568,13 +1568,13 @@
       <c r="F19" s="5">
         <v>250</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="6">
         <v>400</v>
       </c>
       <c r="H19" s="5">
         <v>350</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>400</v>
       </c>
       <c r="J19" s="5">
@@ -1586,7 +1586,7 @@
       <c r="L19" s="6">
         <v>450</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="5">
         <v>150</v>
       </c>
       <c r="N19" s="5">
@@ -1613,7 +1613,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="3">
-        <v>45723</v>
+        <v>45733</v>
       </c>
       <c r="B20" s="4">
         <v>100</v>
@@ -1675,69 +1675,69 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="3">
-        <v>45724</v>
+        <v>45734</v>
       </c>
       <c r="B21" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C21" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D21" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E21" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F21" s="5">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="G21" s="6">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="H21" s="5">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="I21" s="6">
-        <v>280</v>
-      </c>
-      <c r="J21" s="5">
-        <v>245</v>
+        <v>400</v>
+      </c>
+      <c r="J21" s="6">
+        <v>350</v>
       </c>
       <c r="K21" s="5">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="L21" s="6">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="M21" s="5">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N21" s="5">
-        <v>140</v>
-      </c>
-      <c r="O21" s="4">
-        <v>105</v>
+        <v>200</v>
+      </c>
+      <c r="O21" s="5">
+        <v>150</v>
       </c>
       <c r="P21" s="5">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q21" s="5">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="R21" s="6">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="S21" s="5">
-        <v>140</v>
-      </c>
-      <c r="T21" s="5">
-        <v>245</v>
+        <v>200</v>
+      </c>
+      <c r="T21" s="6">
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="3">
-        <v>45726</v>
+        <v>45735</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="3">
-        <v>45727</v>
+        <v>45736</v>
       </c>
       <c r="B23" s="4">
         <v>100</v>
@@ -1819,7 +1819,7 @@
       <c r="G23" s="6">
         <v>400</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>350</v>
       </c>
       <c r="I23" s="6">
@@ -1828,10 +1828,10 @@
       <c r="J23" s="6">
         <v>350</v>
       </c>
-      <c r="K23" s="5">
-        <v>350</v>
-      </c>
-      <c r="L23" s="6">
+      <c r="K23" s="6">
+        <v>350</v>
+      </c>
+      <c r="L23" s="7">
         <v>450</v>
       </c>
       <c r="M23" s="5">
@@ -1849,7 +1849,7 @@
       <c r="Q23" s="5">
         <v>300</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="7">
         <v>450</v>
       </c>
       <c r="S23" s="5">
@@ -1861,7 +1861,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="3">
-        <v>45728</v>
+        <v>45737</v>
       </c>
       <c r="B24" s="4">
         <v>100</v>
@@ -1911,7 +1911,7 @@
       <c r="Q24" s="5">
         <v>300</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="7">
         <v>450</v>
       </c>
       <c r="S24" s="5">
@@ -1923,7 +1923,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="3">
-        <v>45729</v>
+        <v>45738</v>
       </c>
       <c r="B25" s="4">
         <v>100</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="3">
-        <v>45730</v>
+        <v>45740</v>
       </c>
       <c r="B26" s="4">
         <v>100</v>
@@ -2032,7 +2032,7 @@
       <c r="P26" s="5">
         <v>250</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="6">
         <v>300</v>
       </c>
       <c r="R26" s="7">
@@ -2047,69 +2047,69 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="3">
-        <v>45731</v>
+        <v>45741</v>
       </c>
       <c r="B27" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C27" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D27" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E27" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F27" s="5">
-        <v>175</v>
-      </c>
-      <c r="G27" s="6">
-        <v>280</v>
+        <v>250</v>
+      </c>
+      <c r="G27" s="7">
+        <v>400</v>
       </c>
       <c r="H27" s="6">
-        <v>245</v>
-      </c>
-      <c r="I27" s="6">
-        <v>280</v>
+        <v>350</v>
+      </c>
+      <c r="I27" s="7">
+        <v>400</v>
       </c>
       <c r="J27" s="6">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="K27" s="6">
-        <v>245</v>
-      </c>
-      <c r="L27" s="7">
-        <v>315</v>
+        <v>350</v>
+      </c>
+      <c r="L27" s="8">
+        <v>450</v>
       </c>
       <c r="M27" s="5">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N27" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O27" s="5">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P27" s="5">
-        <v>175</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>210</v>
-      </c>
-      <c r="R27" s="7">
-        <v>315</v>
+        <v>250</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>300</v>
+      </c>
+      <c r="R27" s="8">
+        <v>450</v>
       </c>
       <c r="S27" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="T27" s="6">
-        <v>245</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="3">
-        <v>45733</v>
+        <v>45742</v>
       </c>
       <c r="B28" s="4">
         <v>100</v>
@@ -2141,7 +2141,7 @@
       <c r="K28" s="6">
         <v>350</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="8">
         <v>450</v>
       </c>
       <c r="M28" s="5">
@@ -2159,7 +2159,7 @@
       <c r="Q28" s="6">
         <v>300</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="8">
         <v>450</v>
       </c>
       <c r="S28" s="5">
@@ -2171,7 +2171,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="3">
-        <v>45734</v>
+        <v>45743</v>
       </c>
       <c r="B29" s="4">
         <v>100</v>
@@ -2185,7 +2185,7 @@
       <c r="E29" s="4">
         <v>100</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="6">
         <v>250</v>
       </c>
       <c r="G29" s="7">
@@ -2233,7 +2233,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="3">
-        <v>45735</v>
+        <v>45744</v>
       </c>
       <c r="B30" s="4">
         <v>100</v>
@@ -2253,13 +2253,13 @@
       <c r="G30" s="7">
         <v>400</v>
       </c>
-      <c r="H30" s="6">
-        <v>350</v>
-      </c>
-      <c r="I30" s="7">
+      <c r="H30" s="7">
+        <v>350</v>
+      </c>
+      <c r="I30" s="8">
         <v>400</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="7">
         <v>350</v>
       </c>
       <c r="K30" s="6">
@@ -2277,7 +2277,7 @@
       <c r="O30" s="5">
         <v>150</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="6">
         <v>250</v>
       </c>
       <c r="Q30" s="6">
@@ -2289,13 +2289,13 @@
       <c r="S30" s="5">
         <v>200</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="7">
         <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="3">
-        <v>45736</v>
+        <v>45745</v>
       </c>
       <c r="B31" s="4">
         <v>100</v>
@@ -2312,13 +2312,13 @@
       <c r="F31" s="6">
         <v>250</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>400</v>
       </c>
-      <c r="H31" s="6">
-        <v>350</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="8">
         <v>400</v>
       </c>
       <c r="J31" s="7">
@@ -2351,15 +2351,15 @@
       <c r="S31" s="5">
         <v>200</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="7">
         <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="3">
-        <v>45737</v>
-      </c>
-      <c r="B32" s="4">
+        <v>45747</v>
+      </c>
+      <c r="B32" s="5">
         <v>100</v>
       </c>
       <c r="C32" s="5">
@@ -2386,7 +2386,7 @@
       <c r="J32" s="7">
         <v>350</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="7">
         <v>350</v>
       </c>
       <c r="L32" s="8">
@@ -2419,69 +2419,69 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="3">
-        <v>45738</v>
-      </c>
-      <c r="B33" s="4">
-        <v>70</v>
+        <v>45748</v>
+      </c>
+      <c r="B33" s="5">
+        <v>100</v>
       </c>
       <c r="C33" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D33" s="5">
-        <v>140</v>
-      </c>
-      <c r="E33" s="4">
-        <v>70</v>
+        <v>200</v>
+      </c>
+      <c r="E33" s="5">
+        <v>100</v>
       </c>
       <c r="F33" s="6">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="G33" s="8">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="H33" s="7">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="I33" s="8">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="J33" s="7">
-        <v>245</v>
-      </c>
-      <c r="K33" s="6">
-        <v>245</v>
+        <v>350</v>
+      </c>
+      <c r="K33" s="7">
+        <v>350</v>
       </c>
       <c r="L33" s="8">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="M33" s="5">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N33" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O33" s="5">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P33" s="6">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q33" s="6">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="R33" s="8">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="S33" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="T33" s="7">
-        <v>245</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="3">
-        <v>45740</v>
+        <v>45749</v>
       </c>
       <c r="B34" s="5">
         <v>100</v>
@@ -2534,7 +2534,7 @@
       <c r="R34" s="8">
         <v>450</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="6">
         <v>200</v>
       </c>
       <c r="T34" s="7">
@@ -2543,7 +2543,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="3">
-        <v>45741</v>
+        <v>45750</v>
       </c>
       <c r="B35" s="5">
         <v>100</v>
@@ -2575,7 +2575,7 @@
       <c r="K35" s="7">
         <v>350</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="9">
         <v>450</v>
       </c>
       <c r="M35" s="5">
@@ -2593,24 +2593,24 @@
       <c r="Q35" s="6">
         <v>300</v>
       </c>
-      <c r="R35" s="8">
+      <c r="R35" s="9">
         <v>450</v>
       </c>
       <c r="S35" s="6">
         <v>200</v>
       </c>
-      <c r="T35" s="7">
+      <c r="T35" s="8">
         <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="3">
-        <v>45742</v>
+        <v>45751</v>
       </c>
       <c r="B36" s="5">
         <v>100</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="6">
         <v>200</v>
       </c>
       <c r="D36" s="5">
@@ -2625,19 +2625,19 @@
       <c r="G36" s="8">
         <v>400</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="8">
         <v>350</v>
       </c>
       <c r="I36" s="8">
         <v>400</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="8">
         <v>350</v>
       </c>
       <c r="K36" s="7">
         <v>350</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="9">
         <v>450</v>
       </c>
       <c r="M36" s="5">
@@ -2661,18 +2661,18 @@
       <c r="S36" s="6">
         <v>200</v>
       </c>
-      <c r="T36" s="7">
+      <c r="T36" s="8">
         <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="3">
-        <v>45743</v>
+        <v>45752</v>
       </c>
       <c r="B37" s="5">
         <v>100</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <v>200</v>
       </c>
       <c r="D37" s="5">
@@ -2687,7 +2687,7 @@
       <c r="G37" s="8">
         <v>400</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="8">
         <v>350</v>
       </c>
       <c r="I37" s="8">
@@ -2705,7 +2705,7 @@
       <c r="M37" s="5">
         <v>150</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="6">
         <v>200</v>
       </c>
       <c r="O37" s="5">
@@ -2729,7 +2729,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="3">
-        <v>45744</v>
+        <v>45754</v>
       </c>
       <c r="B38" s="5">
         <v>100</v>
@@ -2737,7 +2737,7 @@
       <c r="C38" s="6">
         <v>200</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="6">
         <v>200</v>
       </c>
       <c r="E38" s="5">
@@ -2758,7 +2758,7 @@
       <c r="J38" s="8">
         <v>350</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="8">
         <v>350</v>
       </c>
       <c r="L38" s="9">
@@ -2776,7 +2776,7 @@
       <c r="P38" s="6">
         <v>250</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38" s="7">
         <v>300</v>
       </c>
       <c r="R38" s="9">
@@ -2791,69 +2791,69 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="3">
-        <v>45745</v>
+        <v>45755</v>
       </c>
       <c r="B39" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C39" s="6">
-        <v>140</v>
-      </c>
-      <c r="D39" s="5">
-        <v>140</v>
+        <v>200</v>
+      </c>
+      <c r="D39" s="6">
+        <v>200</v>
       </c>
       <c r="E39" s="5">
-        <v>70</v>
-      </c>
-      <c r="F39" s="6">
-        <v>175</v>
+        <v>100</v>
+      </c>
+      <c r="F39" s="7">
+        <v>250</v>
       </c>
       <c r="G39" s="8">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="H39" s="8">
-        <v>245</v>
-      </c>
-      <c r="I39" s="8">
-        <v>280</v>
+        <v>350</v>
+      </c>
+      <c r="I39" s="9">
+        <v>400</v>
       </c>
       <c r="J39" s="8">
-        <v>245</v>
-      </c>
-      <c r="K39" s="7">
-        <v>245</v>
+        <v>350</v>
+      </c>
+      <c r="K39" s="8">
+        <v>350</v>
       </c>
       <c r="L39" s="9">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="M39" s="5">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N39" s="6">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O39" s="5">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P39" s="6">
-        <v>175</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>210</v>
+        <v>250</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>300</v>
       </c>
       <c r="R39" s="9">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="S39" s="6">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="T39" s="8">
-        <v>245</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="3">
-        <v>45747</v>
+        <v>45756</v>
       </c>
       <c r="B40" s="5">
         <v>100</v>
@@ -2867,16 +2867,16 @@
       <c r="E40" s="5">
         <v>100</v>
       </c>
-      <c r="F40" s="6">
-        <v>250</v>
-      </c>
-      <c r="G40" s="8">
+      <c r="F40" s="7">
+        <v>250</v>
+      </c>
+      <c r="G40" s="9">
         <v>400</v>
       </c>
       <c r="H40" s="8">
         <v>350</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="9">
         <v>400</v>
       </c>
       <c r="J40" s="8">
@@ -2886,7 +2886,7 @@
         <v>350</v>
       </c>
       <c r="L40" s="9">
-        <v>450</v>
+        <v>53</v>
       </c>
       <c r="M40" s="5">
         <v>150</v>
@@ -2904,7 +2904,7 @@
         <v>300</v>
       </c>
       <c r="R40" s="9">
-        <v>450</v>
+        <v>218</v>
       </c>
       <c r="S40" s="6">
         <v>200</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="3">
-        <v>45748</v>
+        <v>45757</v>
       </c>
       <c r="B41" s="5">
         <v>100</v>
@@ -2932,7 +2932,7 @@
       <c r="F41" s="7">
         <v>250</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="9">
         <v>400</v>
       </c>
       <c r="H41" s="8">
@@ -2947,8 +2947,8 @@
       <c r="K41" s="8">
         <v>350</v>
       </c>
-      <c r="L41" s="9">
-        <v>450</v>
+      <c r="L41">
+        <v>0</v>
       </c>
       <c r="M41" s="5">
         <v>150</v>
@@ -2959,14 +2959,14 @@
       <c r="O41" s="5">
         <v>150</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="7">
         <v>250</v>
       </c>
       <c r="Q41" s="7">
         <v>300</v>
       </c>
-      <c r="R41" s="9">
-        <v>450</v>
+      <c r="R41">
+        <v>0</v>
       </c>
       <c r="S41" s="6">
         <v>200</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="3">
-        <v>45749</v>
+        <v>45758</v>
       </c>
       <c r="B42" s="5">
         <v>100</v>
@@ -3009,8 +3009,8 @@
       <c r="K42" s="8">
         <v>350</v>
       </c>
-      <c r="L42" s="9">
-        <v>98</v>
+      <c r="L42">
+        <v>0</v>
       </c>
       <c r="M42" s="5">
         <v>150</v>
@@ -3021,14 +3021,14 @@
       <c r="O42" s="5">
         <v>150</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="7">
         <v>250</v>
       </c>
       <c r="Q42" s="7">
         <v>300</v>
       </c>
-      <c r="R42" s="9">
-        <v>263</v>
+      <c r="R42">
+        <v>0</v>
       </c>
       <c r="S42" s="6">
         <v>200</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="3">
-        <v>45750</v>
+        <v>45759</v>
       </c>
       <c r="B43" s="5">
         <v>100</v>
@@ -3086,7 +3086,7 @@
       <c r="P43" s="7">
         <v>250</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="8">
         <v>300</v>
       </c>
       <c r="R43">
@@ -3101,7 +3101,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="3">
-        <v>45751</v>
+        <v>45761</v>
       </c>
       <c r="B44" s="5">
         <v>100</v>
@@ -3125,9 +3125,9 @@
         <v>350</v>
       </c>
       <c r="I44" s="9">
-        <v>400</v>
-      </c>
-      <c r="J44" s="8">
+        <v>120</v>
+      </c>
+      <c r="J44" s="9">
         <v>350</v>
       </c>
       <c r="K44" s="8">
@@ -3148,7 +3148,7 @@
       <c r="P44" s="7">
         <v>250</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="8">
         <v>300</v>
       </c>
       <c r="R44">
@@ -3163,69 +3163,69 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="3">
-        <v>45752</v>
+        <v>45762</v>
       </c>
       <c r="B45" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C45" s="6">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D45" s="6">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E45" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F45" s="7">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="G45" s="9">
-        <v>280</v>
-      </c>
-      <c r="H45" s="8">
-        <v>245</v>
-      </c>
-      <c r="I45" s="9">
-        <v>280</v>
-      </c>
-      <c r="J45" s="8">
-        <v>245</v>
+        <v>332</v>
+      </c>
+      <c r="H45" s="9">
+        <v>350</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
+        <v>350</v>
       </c>
       <c r="K45" s="8">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" s="5">
-        <v>105</v>
+      <c r="M45" s="6">
+        <v>150</v>
       </c>
       <c r="N45" s="6">
-        <v>140</v>
-      </c>
-      <c r="O45" s="5">
-        <v>105</v>
+        <v>200</v>
+      </c>
+      <c r="O45" s="6">
+        <v>150</v>
       </c>
       <c r="P45" s="7">
-        <v>175</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>210</v>
+        <v>250</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>300</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
       <c r="S45" s="6">
-        <v>140</v>
-      </c>
-      <c r="T45" s="8">
-        <v>245</v>
+        <v>200</v>
+      </c>
+      <c r="T45" s="9">
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="3">
-        <v>45754</v>
+        <v>45763</v>
       </c>
       <c r="B46" s="5">
         <v>100</v>
@@ -3242,16 +3242,16 @@
       <c r="F46" s="7">
         <v>250</v>
       </c>
-      <c r="G46" s="9">
-        <v>400</v>
-      </c>
-      <c r="H46" s="8">
-        <v>350</v>
-      </c>
-      <c r="I46" s="9">
-        <v>280</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>350</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="9">
         <v>350</v>
       </c>
       <c r="K46" s="8">
@@ -3260,13 +3260,13 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>150</v>
       </c>
       <c r="N46" s="6">
         <v>200</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="6">
         <v>150</v>
       </c>
       <c r="P46" s="7">
@@ -3281,13 +3281,13 @@
       <c r="S46" s="6">
         <v>200</v>
       </c>
-      <c r="T46" s="8">
+      <c r="T46" s="9">
         <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="3">
-        <v>45755</v>
+        <v>45764</v>
       </c>
       <c r="B47" s="5">
         <v>100</v>
@@ -3304,10 +3304,10 @@
       <c r="F47" s="7">
         <v>250</v>
       </c>
-      <c r="G47" s="9">
-        <v>400</v>
-      </c>
-      <c r="H47" s="8">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
         <v>350</v>
       </c>
       <c r="I47">
@@ -3328,7 +3328,7 @@
       <c r="N47" s="6">
         <v>200</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="6">
         <v>150</v>
       </c>
       <c r="P47" s="7">
@@ -3343,13 +3343,13 @@
       <c r="S47" s="6">
         <v>200</v>
       </c>
-      <c r="T47" s="8">
+      <c r="T47" s="9">
         <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="3">
-        <v>45756</v>
+        <v>45765</v>
       </c>
       <c r="B48" s="5">
         <v>100</v>
@@ -3363,11 +3363,11 @@
       <c r="E48" s="5">
         <v>100</v>
       </c>
-      <c r="F48" s="7">
-        <v>250</v>
-      </c>
-      <c r="G48" s="9">
-        <v>92</v>
+      <c r="F48" s="8">
+        <v>250</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48" s="9">
         <v>350</v>
@@ -3402,7 +3402,7 @@
       <c r="R48">
         <v>0</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="7">
         <v>200</v>
       </c>
       <c r="T48" s="9">
@@ -3411,12 +3411,12 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="3">
-        <v>45757</v>
+        <v>45766</v>
       </c>
       <c r="B49" s="5">
         <v>100</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="7">
         <v>200</v>
       </c>
       <c r="D49" s="6">
@@ -3425,7 +3425,7 @@
       <c r="E49" s="5">
         <v>100</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <v>250</v>
       </c>
       <c r="G49">
@@ -3440,7 +3440,7 @@
       <c r="J49" s="9">
         <v>350</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="9">
         <v>350</v>
       </c>
       <c r="L49">
@@ -3455,7 +3455,7 @@
       <c r="O49" s="6">
         <v>150</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="8">
         <v>250</v>
       </c>
       <c r="Q49" s="8">
@@ -3464,7 +3464,7 @@
       <c r="R49">
         <v>0</v>
       </c>
-      <c r="S49" s="6">
+      <c r="S49" s="7">
         <v>200</v>
       </c>
       <c r="T49" s="9">
@@ -3473,12 +3473,12 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="3">
-        <v>45758</v>
+        <v>45768</v>
       </c>
       <c r="B50" s="5">
         <v>100</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="7">
         <v>200</v>
       </c>
       <c r="D50" s="6">
@@ -3500,9 +3500,9 @@
         <v>0</v>
       </c>
       <c r="J50" s="9">
-        <v>350</v>
-      </c>
-      <c r="K50" s="8">
+        <v>234</v>
+      </c>
+      <c r="K50" s="9">
         <v>350</v>
       </c>
       <c r="L50">
@@ -3517,7 +3517,7 @@
       <c r="O50" s="6">
         <v>150</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="8">
         <v>250</v>
       </c>
       <c r="Q50" s="8">
@@ -3526,7 +3526,7 @@
       <c r="R50">
         <v>0</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="7">
         <v>200</v>
       </c>
       <c r="T50" s="9">
@@ -3535,69 +3535,69 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="3">
-        <v>45759</v>
+        <v>45769</v>
       </c>
       <c r="B51" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C51" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D51" s="6">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E51" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F51" s="8">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" s="9">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="9">
-        <v>245</v>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="K51" s="9">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51" s="6">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N51" s="6">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O51" s="6">
-        <v>105</v>
-      </c>
-      <c r="P51" s="7">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="P51" s="8">
+        <v>250</v>
       </c>
       <c r="Q51" s="8">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="R51">
         <v>0</v>
       </c>
       <c r="S51" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="T51" s="9">
-        <v>245</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="3">
-        <v>45761</v>
+        <v>45770</v>
       </c>
       <c r="B52" s="5">
         <v>100</v>
@@ -3618,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="H52" s="9">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" s="9">
-        <v>350</v>
+      <c r="J52">
+        <v>0</v>
       </c>
       <c r="K52" s="9">
         <v>350</v>
@@ -3654,12 +3654,12 @@
         <v>200</v>
       </c>
       <c r="T52" s="9">
-        <v>350</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="3">
-        <v>45762</v>
+        <v>45771</v>
       </c>
       <c r="B53" s="5">
         <v>100</v>
@@ -3679,14 +3679,14 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="9">
-        <v>350</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="9">
-        <v>129</v>
+      <c r="J53">
+        <v>0</v>
       </c>
       <c r="K53" s="9">
         <v>350</v>
@@ -3715,13 +3715,13 @@
       <c r="S53" s="7">
         <v>200</v>
       </c>
-      <c r="T53" s="9">
-        <v>350</v>
+      <c r="T53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="3">
-        <v>45763</v>
+        <v>45772</v>
       </c>
       <c r="B54" s="5">
         <v>100</v>
@@ -3741,8 +3741,8 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" s="9">
-        <v>319</v>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="9">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -3777,13 +3777,13 @@
       <c r="S54" s="7">
         <v>200</v>
       </c>
-      <c r="T54" s="9">
-        <v>350</v>
+      <c r="T54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="3">
-        <v>45764</v>
+        <v>45773</v>
       </c>
       <c r="B55" s="5">
         <v>100</v>
@@ -3791,7 +3791,7 @@
       <c r="C55" s="7">
         <v>200</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="7">
         <v>200</v>
       </c>
       <c r="E55" s="5">
@@ -3812,8 +3812,8 @@
       <c r="J55">
         <v>0</v>
       </c>
-      <c r="K55" s="9">
-        <v>350</v>
+      <c r="K55">
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3821,7 +3821,7 @@
       <c r="M55" s="6">
         <v>150</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="7">
         <v>200</v>
       </c>
       <c r="O55" s="6">
@@ -3839,13 +3839,13 @@
       <c r="S55" s="7">
         <v>200</v>
       </c>
-      <c r="T55" s="9">
-        <v>67</v>
+      <c r="T55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="3">
-        <v>45765</v>
+        <v>45775</v>
       </c>
       <c r="B56" s="5">
         <v>100</v>
@@ -3853,7 +3853,7 @@
       <c r="C56" s="7">
         <v>200</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="7">
         <v>200</v>
       </c>
       <c r="E56" s="5">
@@ -3874,8 +3874,8 @@
       <c r="J56">
         <v>0</v>
       </c>
-      <c r="K56" s="9">
-        <v>350</v>
+      <c r="K56">
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -3883,7 +3883,7 @@
       <c r="M56" s="6">
         <v>150</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56" s="7">
         <v>200</v>
       </c>
       <c r="O56" s="6">
@@ -3898,7 +3898,7 @@
       <c r="R56">
         <v>0</v>
       </c>
-      <c r="S56" s="7">
+      <c r="S56" s="8">
         <v>200</v>
       </c>
       <c r="T56">
@@ -3907,22 +3907,22 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="3">
-        <v>45766</v>
+        <v>45776</v>
       </c>
       <c r="B57" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C57" s="7">
-        <v>140</v>
-      </c>
-      <c r="D57" s="6">
-        <v>140</v>
+        <v>200</v>
+      </c>
+      <c r="D57" s="7">
+        <v>200</v>
       </c>
       <c r="E57" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F57" s="8">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3936,32 +3936,32 @@
       <c r="J57">
         <v>0</v>
       </c>
-      <c r="K57" s="9">
-        <v>191</v>
+      <c r="K57">
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57" s="6">
-        <v>105</v>
-      </c>
-      <c r="N57" s="6">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="N57" s="7">
+        <v>200</v>
       </c>
       <c r="O57" s="6">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P57" s="8">
-        <v>175</v>
-      </c>
-      <c r="Q57" s="8">
-        <v>210</v>
+        <v>250</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>300</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
-      <c r="S57" s="7">
-        <v>140</v>
+      <c r="S57" s="8">
+        <v>200</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="3">
-        <v>45768</v>
+        <v>45777</v>
       </c>
       <c r="B58" s="5">
         <v>100</v>
@@ -4016,13 +4016,13 @@
       <c r="P58" s="8">
         <v>250</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="Q58" s="9">
         <v>300</v>
       </c>
       <c r="R58">
         <v>0</v>
       </c>
-      <c r="S58" s="7">
+      <c r="S58" s="8">
         <v>200</v>
       </c>
       <c r="T58">
@@ -4031,7 +4031,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="3">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="B59" s="5">
         <v>100</v>
@@ -4078,7 +4078,7 @@
       <c r="P59" s="8">
         <v>250</v>
       </c>
-      <c r="Q59" s="8">
+      <c r="Q59" s="9">
         <v>300</v>
       </c>
       <c r="R59">
@@ -4093,12 +4093,12 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="3">
-        <v>45770</v>
+        <v>45779</v>
       </c>
       <c r="B60" s="5">
         <v>100</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <v>200</v>
       </c>
       <c r="D60" s="7">
@@ -4155,12 +4155,12 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="3">
-        <v>45771</v>
+        <v>45780</v>
       </c>
       <c r="B61" s="5">
         <v>100</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="8">
         <v>200</v>
       </c>
       <c r="D61" s="7">
@@ -4169,7 +4169,7 @@
       <c r="E61" s="5">
         <v>100</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="9">
         <v>250</v>
       </c>
       <c r="G61">
@@ -4217,12 +4217,12 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="3">
-        <v>45772</v>
+        <v>45782</v>
       </c>
       <c r="B62" s="5">
         <v>100</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <v>200</v>
       </c>
       <c r="D62" s="7">
@@ -4231,7 +4231,7 @@
       <c r="E62" s="5">
         <v>100</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="9">
         <v>250</v>
       </c>
       <c r="G62">
@@ -4279,22 +4279,22 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="3">
-        <v>45773</v>
+        <v>45783</v>
       </c>
       <c r="B63" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C63" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D63" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E63" s="5">
-        <v>70</v>
-      </c>
-      <c r="F63" s="8">
-        <v>175</v>
+        <v>100</v>
+      </c>
+      <c r="F63" s="9">
+        <v>250</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -4315,25 +4315,25 @@
         <v>0</v>
       </c>
       <c r="M63" s="6">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N63" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O63" s="6">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P63" s="8">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q63" s="9">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="3">
-        <v>45775</v>
+        <v>45784</v>
       </c>
       <c r="B64" s="5">
         <v>100</v>
@@ -4349,7 +4349,7 @@
       <c r="C64" s="8">
         <v>200</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="8">
         <v>200</v>
       </c>
       <c r="E64" s="5">
@@ -4385,7 +4385,7 @@
       <c r="O64" s="6">
         <v>150</v>
       </c>
-      <c r="P64" s="8">
+      <c r="P64" s="9">
         <v>250</v>
       </c>
       <c r="Q64" s="9">
@@ -4403,7 +4403,7 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="3">
-        <v>45776</v>
+        <v>45785</v>
       </c>
       <c r="B65" s="5">
         <v>100</v>
@@ -4411,7 +4411,7 @@
       <c r="C65" s="8">
         <v>200</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="8">
         <v>200</v>
       </c>
       <c r="E65" s="5">
@@ -4438,7 +4438,7 @@
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="7">
         <v>150</v>
       </c>
       <c r="N65" s="7">
@@ -4447,11 +4447,11 @@
       <c r="O65" s="6">
         <v>150</v>
       </c>
-      <c r="P65" s="8">
+      <c r="P65" s="9">
         <v>250</v>
       </c>
       <c r="Q65" s="9">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="3">
-        <v>45777</v>
+        <v>45786</v>
       </c>
       <c r="B66" s="5">
         <v>100</v>
@@ -4473,7 +4473,7 @@
       <c r="C66" s="8">
         <v>200</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="8">
         <v>200</v>
       </c>
       <c r="E66" s="5">
@@ -4500,7 +4500,7 @@
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66" s="7">
         <v>150</v>
       </c>
       <c r="N66" s="7">
@@ -4509,11 +4509,11 @@
       <c r="O66" s="6">
         <v>150</v>
       </c>
-      <c r="P66" s="8">
-        <v>250</v>
-      </c>
-      <c r="Q66" s="9">
-        <v>300</v>
+      <c r="P66" s="9">
+        <v>250</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="3">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B67" s="5">
         <v>100</v>
@@ -4562,10 +4562,10 @@
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" s="6">
-        <v>150</v>
-      </c>
-      <c r="N67" s="7">
+      <c r="M67" s="7">
+        <v>150</v>
+      </c>
+      <c r="N67" s="8">
         <v>200</v>
       </c>
       <c r="O67" s="6">
@@ -4574,8 +4574,8 @@
       <c r="P67" s="9">
         <v>250</v>
       </c>
-      <c r="Q67" s="9">
-        <v>300</v>
+      <c r="Q67">
+        <v>0</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="3">
-        <v>45779</v>
+        <v>45789</v>
       </c>
       <c r="B68" s="5">
         <v>100</v>
@@ -4627,17 +4627,17 @@
       <c r="M68" s="7">
         <v>150</v>
       </c>
-      <c r="N68" s="7">
-        <v>200</v>
-      </c>
-      <c r="O68" s="6">
+      <c r="N68" s="8">
+        <v>200</v>
+      </c>
+      <c r="O68" s="7">
         <v>150</v>
       </c>
       <c r="P68" s="9">
         <v>250</v>
       </c>
-      <c r="Q68" s="9">
-        <v>109</v>
+      <c r="Q68">
+        <v>0</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -4651,22 +4651,22 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="3">
-        <v>45780</v>
-      </c>
-      <c r="B69" s="5">
-        <v>70</v>
+        <v>45790</v>
+      </c>
+      <c r="B69" s="6">
+        <v>100</v>
       </c>
       <c r="C69" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E69" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F69" s="9">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4687,16 +4687,16 @@
         <v>0</v>
       </c>
       <c r="M69" s="7">
-        <v>105</v>
-      </c>
-      <c r="N69" s="7">
-        <v>140</v>
-      </c>
-      <c r="O69" s="6">
-        <v>105</v>
+        <v>150</v>
+      </c>
+      <c r="N69" s="8">
+        <v>200</v>
+      </c>
+      <c r="O69" s="7">
+        <v>150</v>
       </c>
       <c r="P69" s="9">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="S69" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -4713,9 +4713,9 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="3">
-        <v>45782</v>
-      </c>
-      <c r="B70" s="5">
+        <v>45791</v>
+      </c>
+      <c r="B70" s="6">
         <v>100</v>
       </c>
       <c r="C70" s="8">
@@ -4728,7 +4728,7 @@
         <v>100</v>
       </c>
       <c r="F70" s="9">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4754,7 +4754,7 @@
       <c r="N70" s="8">
         <v>200</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O70" s="7">
         <v>150</v>
       </c>
       <c r="P70" s="9">
@@ -4775,9 +4775,9 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="3">
-        <v>45783</v>
-      </c>
-      <c r="B71" s="5">
+        <v>45792</v>
+      </c>
+      <c r="B71" s="6">
         <v>100</v>
       </c>
       <c r="C71" s="8">
@@ -4789,8 +4789,8 @@
       <c r="E71" s="5">
         <v>100</v>
       </c>
-      <c r="F71" s="9">
-        <v>250</v>
+      <c r="F71">
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4816,7 +4816,7 @@
       <c r="N71" s="8">
         <v>200</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71" s="7">
         <v>150</v>
       </c>
       <c r="P71" s="9">
@@ -4837,9 +4837,9 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="3">
-        <v>45784</v>
-      </c>
-      <c r="B72" s="5">
+        <v>45793</v>
+      </c>
+      <c r="B72" s="6">
         <v>100</v>
       </c>
       <c r="C72" s="8">
@@ -4848,11 +4848,11 @@
       <c r="D72" s="8">
         <v>200</v>
       </c>
-      <c r="E72" s="5">
-        <v>100</v>
-      </c>
-      <c r="F72" s="9">
-        <v>250</v>
+      <c r="E72" s="6">
+        <v>100</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="3">
-        <v>45785</v>
+        <v>45794</v>
       </c>
       <c r="B73" s="6">
         <v>100</v>
@@ -4910,11 +4910,11 @@
       <c r="D73" s="8">
         <v>200</v>
       </c>
-      <c r="E73" s="5">
-        <v>100</v>
-      </c>
-      <c r="F73" s="9">
-        <v>197</v>
+      <c r="E73" s="6">
+        <v>100</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>150</v>
       </c>
       <c r="P73" s="9">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -4952,7 +4952,7 @@
       <c r="R73">
         <v>0</v>
       </c>
-      <c r="S73" s="8">
+      <c r="S73" s="9">
         <v>200</v>
       </c>
       <c r="T73">
@@ -4961,7 +4961,7 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="3">
-        <v>45786</v>
+        <v>45796</v>
       </c>
       <c r="B74" s="6">
         <v>100</v>
@@ -4972,7 +4972,7 @@
       <c r="D74" s="8">
         <v>200</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="6">
         <v>100</v>
       </c>
       <c r="F74">
@@ -5005,8 +5005,8 @@
       <c r="O74" s="7">
         <v>150</v>
       </c>
-      <c r="P74" s="9">
-        <v>250</v>
+      <c r="P74">
+        <v>0</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -5014,7 +5014,7 @@
       <c r="R74">
         <v>0</v>
       </c>
-      <c r="S74" s="8">
+      <c r="S74" s="9">
         <v>200</v>
       </c>
       <c r="T74">
@@ -5023,19 +5023,19 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="3">
-        <v>45787</v>
+        <v>45797</v>
       </c>
       <c r="B75" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C75" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D75" s="8">
-        <v>140</v>
-      </c>
-      <c r="E75" s="5">
-        <v>70</v>
+        <v>200</v>
+      </c>
+      <c r="E75" s="6">
+        <v>100</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5058,17 +5058,17 @@
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" s="7">
-        <v>105</v>
+      <c r="M75" s="8">
+        <v>150</v>
       </c>
       <c r="N75" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O75" s="7">
-        <v>105</v>
-      </c>
-      <c r="P75" s="9">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -5076,8 +5076,8 @@
       <c r="R75">
         <v>0</v>
       </c>
-      <c r="S75" s="8">
-        <v>140</v>
+      <c r="S75" s="9">
+        <v>200</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="3">
-        <v>45789</v>
+        <v>45798</v>
       </c>
       <c r="B76" s="6">
         <v>100</v>
@@ -5120,7 +5120,7 @@
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" s="7">
+      <c r="M76" s="8">
         <v>150</v>
       </c>
       <c r="N76" s="8">
@@ -5129,8 +5129,8 @@
       <c r="O76" s="7">
         <v>150</v>
       </c>
-      <c r="P76" s="9">
-        <v>250</v>
+      <c r="P76">
+        <v>0</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -5138,7 +5138,7 @@
       <c r="R76">
         <v>0</v>
       </c>
-      <c r="S76" s="8">
+      <c r="S76" s="9">
         <v>200</v>
       </c>
       <c r="T76">
@@ -5147,7 +5147,7 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="3">
-        <v>45790</v>
+        <v>45799</v>
       </c>
       <c r="B77" s="6">
         <v>100</v>
@@ -5182,7 +5182,7 @@
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" s="7">
+      <c r="M77" s="8">
         <v>150</v>
       </c>
       <c r="N77" s="8">
@@ -5191,8 +5191,8 @@
       <c r="O77" s="7">
         <v>150</v>
       </c>
-      <c r="P77" s="9">
-        <v>30</v>
+      <c r="P77">
+        <v>0</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="3">
-        <v>45791</v>
+        <v>45800</v>
       </c>
       <c r="B78" s="6">
         <v>100</v>
@@ -5244,13 +5244,13 @@
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" s="7">
+      <c r="M78" s="8">
         <v>150</v>
       </c>
       <c r="N78" s="8">
         <v>200</v>
       </c>
-      <c r="O78" s="7">
+      <c r="O78" s="8">
         <v>150</v>
       </c>
       <c r="P78">
@@ -5271,7 +5271,7 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="3">
-        <v>45792</v>
+        <v>45801</v>
       </c>
       <c r="B79" s="6">
         <v>100</v>
@@ -5312,7 +5312,7 @@
       <c r="N79" s="8">
         <v>200</v>
       </c>
-      <c r="O79" s="7">
+      <c r="O79" s="8">
         <v>150</v>
       </c>
       <c r="P79">
@@ -5333,12 +5333,12 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="3">
-        <v>45793</v>
+        <v>45803</v>
       </c>
       <c r="B80" s="6">
         <v>100</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="9">
         <v>200</v>
       </c>
       <c r="D80" s="8">
@@ -5374,7 +5374,7 @@
       <c r="N80" s="8">
         <v>200</v>
       </c>
-      <c r="O80" s="7">
+      <c r="O80" s="8">
         <v>150</v>
       </c>
       <c r="P80">
@@ -5395,19 +5395,19 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="3">
-        <v>45794</v>
+        <v>45804</v>
       </c>
       <c r="B81" s="6">
-        <v>70</v>
-      </c>
-      <c r="C81" s="8">
-        <v>140</v>
+        <v>100</v>
+      </c>
+      <c r="C81" s="9">
+        <v>200</v>
       </c>
       <c r="D81" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E81" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -5431,13 +5431,13 @@
         <v>0</v>
       </c>
       <c r="M81" s="8">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N81" s="8">
-        <v>140</v>
-      </c>
-      <c r="O81" s="7">
-        <v>105</v>
+        <v>200</v>
+      </c>
+      <c r="O81" s="8">
+        <v>150</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="9">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -5457,12 +5457,12 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="3">
-        <v>45796</v>
+        <v>45805</v>
       </c>
       <c r="B82" s="6">
         <v>100</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="9">
         <v>200</v>
       </c>
       <c r="D82" s="8">
@@ -5498,7 +5498,7 @@
       <c r="N82" s="8">
         <v>200</v>
       </c>
-      <c r="O82" s="7">
+      <c r="O82" s="8">
         <v>150</v>
       </c>
       <c r="P82">
@@ -5519,15 +5519,15 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="3">
-        <v>45797</v>
+        <v>45806</v>
       </c>
       <c r="B83" s="6">
         <v>100</v>
       </c>
-      <c r="C83" s="8">
-        <v>200</v>
-      </c>
-      <c r="D83" s="8">
+      <c r="C83" s="9">
+        <v>200</v>
+      </c>
+      <c r="D83" s="9">
         <v>200</v>
       </c>
       <c r="E83" s="6">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="9">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="3">
-        <v>45798</v>
+        <v>45807</v>
       </c>
       <c r="B84" s="6">
         <v>100</v>
@@ -5589,7 +5589,7 @@
       <c r="C84" s="9">
         <v>200</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="9">
         <v>200</v>
       </c>
       <c r="E84" s="6">
@@ -5634,8 +5634,8 @@
       <c r="R84">
         <v>0</v>
       </c>
-      <c r="S84" s="9">
-        <v>200</v>
+      <c r="S84">
+        <v>0</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="3">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="B85" s="6">
         <v>100</v>
@@ -5651,7 +5651,7 @@
       <c r="C85" s="9">
         <v>200</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="9">
         <v>200</v>
       </c>
       <c r="E85" s="6">
@@ -5696,8 +5696,8 @@
       <c r="R85">
         <v>0</v>
       </c>
-      <c r="S85" s="9">
-        <v>200</v>
+      <c r="S85">
+        <v>0</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="3">
-        <v>45800</v>
+        <v>45810</v>
       </c>
       <c r="B86" s="6">
         <v>100</v>
@@ -5713,7 +5713,7 @@
       <c r="C86" s="9">
         <v>200</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="9">
         <v>200</v>
       </c>
       <c r="E86" s="6">
@@ -5758,8 +5758,8 @@
       <c r="R86">
         <v>0</v>
       </c>
-      <c r="S86" s="9">
-        <v>200</v>
+      <c r="S86">
+        <v>0</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -5767,19 +5767,19 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="3">
-        <v>45801</v>
+        <v>45811</v>
       </c>
       <c r="B87" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C87" s="9">
-        <v>140</v>
-      </c>
-      <c r="D87" s="8">
-        <v>140</v>
+        <v>200</v>
+      </c>
+      <c r="D87" s="9">
+        <v>200</v>
       </c>
       <c r="E87" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5803,13 +5803,13 @@
         <v>0</v>
       </c>
       <c r="M87" s="8">
-        <v>105</v>
-      </c>
-      <c r="N87" s="8">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="N87" s="9">
+        <v>200</v>
       </c>
       <c r="O87" s="8">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -5820,8 +5820,8 @@
       <c r="R87">
         <v>0</v>
       </c>
-      <c r="S87" s="9">
-        <v>140</v>
+      <c r="S87">
+        <v>0</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -5829,13 +5829,13 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="3">
-        <v>45803</v>
+        <v>45812</v>
       </c>
       <c r="B88" s="6">
         <v>100</v>
       </c>
       <c r="C88" s="9">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D88" s="9">
         <v>200</v>
@@ -5867,7 +5867,7 @@
       <c r="M88" s="8">
         <v>150</v>
       </c>
-      <c r="N88" s="8">
+      <c r="N88" s="9">
         <v>200</v>
       </c>
       <c r="O88" s="8">
@@ -5882,8 +5882,8 @@
       <c r="R88">
         <v>0</v>
       </c>
-      <c r="S88" s="9">
-        <v>50</v>
+      <c r="S88">
+        <v>0</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -5891,13 +5891,13 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="3">
-        <v>45804</v>
+        <v>45813</v>
       </c>
       <c r="B89" s="6">
         <v>100</v>
       </c>
-      <c r="C89" s="9">
-        <v>200</v>
+      <c r="C89">
+        <v>0</v>
       </c>
       <c r="D89" s="9">
         <v>200</v>
@@ -5929,7 +5929,7 @@
       <c r="M89" s="8">
         <v>150</v>
       </c>
-      <c r="N89" s="8">
+      <c r="N89" s="9">
         <v>200</v>
       </c>
       <c r="O89" s="8">
@@ -5953,13 +5953,13 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="3">
-        <v>45805</v>
+        <v>45814</v>
       </c>
       <c r="B90" s="6">
         <v>100</v>
       </c>
-      <c r="C90" s="9">
-        <v>200</v>
+      <c r="C90">
+        <v>0</v>
       </c>
       <c r="D90" s="9">
         <v>200</v>
@@ -5991,7 +5991,7 @@
       <c r="M90" s="8">
         <v>150</v>
       </c>
-      <c r="N90" s="8">
+      <c r="N90" s="9">
         <v>200</v>
       </c>
       <c r="O90" s="8">
@@ -6015,13 +6015,13 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="3">
-        <v>45806</v>
+        <v>45815</v>
       </c>
       <c r="B91" s="6">
         <v>100</v>
       </c>
-      <c r="C91" s="9">
-        <v>200</v>
+      <c r="C91">
+        <v>0</v>
       </c>
       <c r="D91" s="9">
         <v>200</v>
@@ -6077,13 +6077,13 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="3">
-        <v>45807</v>
+        <v>45817</v>
       </c>
       <c r="B92" s="6">
         <v>100</v>
       </c>
-      <c r="C92" s="9">
-        <v>200</v>
+      <c r="C92">
+        <v>0</v>
       </c>
       <c r="D92" s="9">
         <v>200</v>
@@ -6139,19 +6139,19 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="3">
-        <v>45808</v>
+        <v>45818</v>
       </c>
       <c r="B93" s="6">
-        <v>70</v>
-      </c>
-      <c r="C93" s="9">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
       </c>
       <c r="D93" s="9">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E93" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="M93" s="8">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N93" s="9">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O93" s="8">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="3">
-        <v>45810</v>
+        <v>45819</v>
       </c>
       <c r="B94" s="6">
         <v>100</v>
@@ -6209,8 +6209,8 @@
       <c r="C94">
         <v>0</v>
       </c>
-      <c r="D94" s="9">
-        <v>200</v>
+      <c r="D94">
+        <v>0</v>
       </c>
       <c r="E94" s="6">
         <v>100</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="3">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B95" s="6">
         <v>100</v>
@@ -6271,8 +6271,8 @@
       <c r="C95">
         <v>0</v>
       </c>
-      <c r="D95" s="9">
-        <v>200</v>
+      <c r="D95">
+        <v>0</v>
       </c>
       <c r="E95" s="6">
         <v>100</v>
@@ -6302,7 +6302,7 @@
         <v>150</v>
       </c>
       <c r="N95" s="9">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="O95" s="8">
         <v>150</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="3">
-        <v>45812</v>
+        <v>45821</v>
       </c>
       <c r="B96" s="6">
         <v>100</v>
@@ -6333,8 +6333,8 @@
       <c r="C96">
         <v>0</v>
       </c>
-      <c r="D96" s="9">
-        <v>200</v>
+      <c r="D96">
+        <v>0</v>
       </c>
       <c r="E96" s="6">
         <v>100</v>
@@ -6363,8 +6363,8 @@
       <c r="M96" s="8">
         <v>150</v>
       </c>
-      <c r="N96" s="9">
-        <v>200</v>
+      <c r="N96">
+        <v>0</v>
       </c>
       <c r="O96" s="8">
         <v>150</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="3">
-        <v>45813</v>
+        <v>45822</v>
       </c>
       <c r="B97" s="6">
         <v>100</v>
@@ -6395,8 +6395,8 @@
       <c r="C97">
         <v>0</v>
       </c>
-      <c r="D97" s="9">
-        <v>200</v>
+      <c r="D97">
+        <v>0</v>
       </c>
       <c r="E97" s="6">
         <v>100</v>
@@ -6425,8 +6425,8 @@
       <c r="M97" s="8">
         <v>150</v>
       </c>
-      <c r="N97" s="9">
-        <v>200</v>
+      <c r="N97">
+        <v>0</v>
       </c>
       <c r="O97" s="8">
         <v>150</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="3">
-        <v>45814</v>
+        <v>45824</v>
       </c>
       <c r="B98" s="6">
         <v>100</v>
@@ -6457,8 +6457,8 @@
       <c r="C98">
         <v>0</v>
       </c>
-      <c r="D98" s="9">
-        <v>150</v>
+      <c r="D98">
+        <v>0</v>
       </c>
       <c r="E98" s="6">
         <v>100</v>
@@ -6487,8 +6487,8 @@
       <c r="M98" s="8">
         <v>150</v>
       </c>
-      <c r="N98" s="9">
-        <v>200</v>
+      <c r="N98">
+        <v>0</v>
       </c>
       <c r="O98" s="8">
         <v>150</v>
@@ -6511,10 +6511,10 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="3">
-        <v>45815</v>
+        <v>45825</v>
       </c>
       <c r="B99" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -6547,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="M99" s="8">
-        <v>105</v>
-      </c>
-      <c r="N99" s="9">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
       </c>
       <c r="O99" s="8">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -6573,9 +6573,9 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="3">
-        <v>45817</v>
-      </c>
-      <c r="B100" s="6">
+        <v>45826</v>
+      </c>
+      <c r="B100" s="7">
         <v>100</v>
       </c>
       <c r="C100">
@@ -6611,8 +6611,8 @@
       <c r="M100" s="8">
         <v>150</v>
       </c>
-      <c r="N100" s="9">
-        <v>200</v>
+      <c r="N100">
+        <v>0</v>
       </c>
       <c r="O100" s="8">
         <v>150</v>
@@ -6635,9 +6635,9 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="3">
-        <v>45818</v>
-      </c>
-      <c r="B101" s="6">
+        <v>45827</v>
+      </c>
+      <c r="B101" s="7">
         <v>100</v>
       </c>
       <c r="C101">
@@ -6670,11 +6670,11 @@
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" s="8">
-        <v>150</v>
-      </c>
-      <c r="N101" s="9">
-        <v>10</v>
+      <c r="M101" s="9">
+        <v>150</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
       </c>
       <c r="O101" s="8">
         <v>150</v>
@@ -6697,9 +6697,9 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="3">
-        <v>45819</v>
-      </c>
-      <c r="B102" s="6">
+        <v>45828</v>
+      </c>
+      <c r="B102" s="7">
         <v>100</v>
       </c>
       <c r="C102">
@@ -6708,7 +6708,7 @@
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="7">
         <v>100</v>
       </c>
       <c r="F102">
@@ -6732,7 +6732,7 @@
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" s="8">
+      <c r="M102" s="9">
         <v>150</v>
       </c>
       <c r="N102">
@@ -6759,9 +6759,9 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="3">
-        <v>45820</v>
-      </c>
-      <c r="B103" s="6">
+        <v>45829</v>
+      </c>
+      <c r="B103" s="7">
         <v>100</v>
       </c>
       <c r="C103">
@@ -6770,7 +6770,7 @@
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="7">
         <v>100</v>
       </c>
       <c r="F103">
@@ -6794,7 +6794,7 @@
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" s="8">
+      <c r="M103" s="9">
         <v>150</v>
       </c>
       <c r="N103">
@@ -6821,9 +6821,9 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="3">
-        <v>45821</v>
-      </c>
-      <c r="B104" s="6">
+        <v>45831</v>
+      </c>
+      <c r="B104" s="7">
         <v>100</v>
       </c>
       <c r="C104">
@@ -6832,7 +6832,7 @@
       <c r="D104">
         <v>0</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="7">
         <v>100</v>
       </c>
       <c r="F104">
@@ -6856,7 +6856,7 @@
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" s="8">
+      <c r="M104" s="9">
         <v>150</v>
       </c>
       <c r="N104">
@@ -6883,10 +6883,10 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="3">
-        <v>45822</v>
-      </c>
-      <c r="B105" s="6">
-        <v>70</v>
+        <v>45832</v>
+      </c>
+      <c r="B105" s="7">
+        <v>100</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -6894,8 +6894,8 @@
       <c r="D105">
         <v>0</v>
       </c>
-      <c r="E105" s="6">
-        <v>70</v>
+      <c r="E105" s="7">
+        <v>100</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -6918,14 +6918,14 @@
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" s="8">
-        <v>105</v>
+      <c r="M105" s="9">
+        <v>150</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
       <c r="O105" s="8">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="3">
-        <v>45824</v>
+        <v>45833</v>
       </c>
       <c r="B106" s="7">
         <v>100</v>
@@ -6956,7 +6956,7 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="7">
         <v>100</v>
       </c>
       <c r="F106">
@@ -6986,7 +6986,7 @@
       <c r="N106">
         <v>0</v>
       </c>
-      <c r="O106" s="8">
+      <c r="O106" s="9">
         <v>150</v>
       </c>
       <c r="P106">
@@ -7007,7 +7007,7 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="3">
-        <v>45825</v>
+        <v>45834</v>
       </c>
       <c r="B107" s="7">
         <v>100</v>
@@ -7048,7 +7048,7 @@
       <c r="N107">
         <v>0</v>
       </c>
-      <c r="O107" s="8">
+      <c r="O107" s="9">
         <v>150</v>
       </c>
       <c r="P107">
@@ -7069,7 +7069,7 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="3">
-        <v>45826</v>
+        <v>45835</v>
       </c>
       <c r="B108" s="7">
         <v>100</v>
@@ -7110,7 +7110,7 @@
       <c r="N108">
         <v>0</v>
       </c>
-      <c r="O108" s="8">
+      <c r="O108" s="9">
         <v>150</v>
       </c>
       <c r="P108">
@@ -7131,7 +7131,7 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="3">
-        <v>45827</v>
+        <v>45836</v>
       </c>
       <c r="B109" s="7">
         <v>100</v>
@@ -7172,7 +7172,7 @@
       <c r="N109">
         <v>0</v>
       </c>
-      <c r="O109" s="8">
+      <c r="O109" s="9">
         <v>150</v>
       </c>
       <c r="P109">
@@ -7193,7 +7193,7 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="3">
-        <v>45828</v>
+        <v>45838</v>
       </c>
       <c r="B110" s="7">
         <v>100</v>
@@ -7234,7 +7234,7 @@
       <c r="N110">
         <v>0</v>
       </c>
-      <c r="O110" s="8">
+      <c r="O110" s="9">
         <v>150</v>
       </c>
       <c r="P110">
@@ -7255,10 +7255,10 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="3">
-        <v>45829</v>
+        <v>45839</v>
       </c>
       <c r="B111" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -7291,13 +7291,13 @@
         <v>0</v>
       </c>
       <c r="M111" s="9">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N111">
         <v>0</v>
       </c>
-      <c r="O111" s="8">
-        <v>105</v>
+      <c r="O111" s="9">
+        <v>150</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="3">
-        <v>45831</v>
+        <v>45840</v>
       </c>
       <c r="B112" s="7">
         <v>100</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="3">
-        <v>45832</v>
+        <v>45841</v>
       </c>
       <c r="B113" s="7">
         <v>100</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="3">
-        <v>45833</v>
+        <v>45842</v>
       </c>
       <c r="B114" s="7">
         <v>100</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="3">
-        <v>45834</v>
+        <v>45843</v>
       </c>
       <c r="B115" s="7">
         <v>100</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="3">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="B116" s="7">
         <v>100</v>
@@ -7627,10 +7627,10 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="3">
-        <v>45836</v>
+        <v>45846</v>
       </c>
       <c r="B117" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -7663,13 +7663,13 @@
         <v>0</v>
       </c>
       <c r="M117" s="9">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N117">
         <v>0</v>
       </c>
       <c r="O117" s="9">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" s="3">
-        <v>45838</v>
+        <v>45847</v>
       </c>
       <c r="B118" s="7">
         <v>100</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="9">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -7751,9 +7751,9 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" s="3">
-        <v>45839</v>
-      </c>
-      <c r="B119" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B119" s="8">
         <v>100</v>
       </c>
       <c r="C119">
@@ -7786,8 +7786,8 @@
       <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" s="9">
-        <v>150</v>
+      <c r="M119">
+        <v>0</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -7813,9 +7813,9 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" s="3">
-        <v>45840</v>
-      </c>
-      <c r="B120" s="7">
+        <v>45849</v>
+      </c>
+      <c r="B120" s="8">
         <v>100</v>
       </c>
       <c r="C120">
@@ -7848,8 +7848,8 @@
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" s="9">
-        <v>150</v>
+      <c r="M120">
+        <v>0</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -7875,9 +7875,9 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" s="3">
-        <v>45841</v>
-      </c>
-      <c r="B121" s="7">
+        <v>45850</v>
+      </c>
+      <c r="B121" s="8">
         <v>100</v>
       </c>
       <c r="C121">
@@ -7886,7 +7886,7 @@
       <c r="D121">
         <v>0</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="8">
         <v>100</v>
       </c>
       <c r="F121">
@@ -7910,14 +7910,14 @@
       <c r="L121">
         <v>0</v>
       </c>
-      <c r="M121" s="9">
-        <v>150</v>
+      <c r="M121">
+        <v>0</v>
       </c>
       <c r="N121">
         <v>0</v>
       </c>
       <c r="O121" s="9">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -7937,9 +7937,9 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" s="3">
-        <v>45842</v>
-      </c>
-      <c r="B122" s="7">
+        <v>45852</v>
+      </c>
+      <c r="B122" s="8">
         <v>100</v>
       </c>
       <c r="C122">
@@ -7948,7 +7948,7 @@
       <c r="D122">
         <v>0</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="8">
         <v>100</v>
       </c>
       <c r="F122">
@@ -7972,14 +7972,14 @@
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122" s="9">
-        <v>150</v>
+      <c r="M122">
+        <v>0</v>
       </c>
       <c r="N122">
         <v>0</v>
       </c>
-      <c r="O122" s="9">
-        <v>150</v>
+      <c r="O122">
+        <v>0</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -7999,10 +7999,10 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" s="3">
-        <v>45843</v>
-      </c>
-      <c r="B123" s="7">
-        <v>70</v>
+        <v>45853</v>
+      </c>
+      <c r="B123" s="8">
+        <v>100</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -8010,8 +8010,8 @@
       <c r="D123">
         <v>0</v>
       </c>
-      <c r="E123" s="7">
-        <v>70</v>
+      <c r="E123" s="8">
+        <v>100</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -8034,14 +8034,14 @@
       <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123" s="9">
-        <v>105</v>
+      <c r="M123">
+        <v>0</v>
       </c>
       <c r="N123">
         <v>0</v>
       </c>
-      <c r="O123" s="9">
-        <v>105</v>
+      <c r="O123">
+        <v>0</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -8061,9 +8061,9 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" s="3">
-        <v>45845</v>
-      </c>
-      <c r="B124" s="7">
+        <v>45854</v>
+      </c>
+      <c r="B124" s="8">
         <v>100</v>
       </c>
       <c r="C124">
@@ -8072,7 +8072,7 @@
       <c r="D124">
         <v>0</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="8">
         <v>100</v>
       </c>
       <c r="F124">
@@ -8096,14 +8096,14 @@
       <c r="L124">
         <v>0</v>
       </c>
-      <c r="M124" s="9">
-        <v>73</v>
+      <c r="M124">
+        <v>0</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
-      <c r="O124" s="9">
-        <v>150</v>
+      <c r="O124">
+        <v>0</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -8123,9 +8123,9 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" s="3">
-        <v>45846</v>
-      </c>
-      <c r="B125" s="7">
+        <v>45855</v>
+      </c>
+      <c r="B125" s="8">
         <v>100</v>
       </c>
       <c r="C125">
@@ -8134,7 +8134,7 @@
       <c r="D125">
         <v>0</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="8">
         <v>100</v>
       </c>
       <c r="F125">
@@ -8164,8 +8164,8 @@
       <c r="N125">
         <v>0</v>
       </c>
-      <c r="O125" s="9">
-        <v>150</v>
+      <c r="O125">
+        <v>0</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -8185,7 +8185,7 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" s="3">
-        <v>45847</v>
+        <v>45856</v>
       </c>
       <c r="B126" s="8">
         <v>100</v>
@@ -8196,7 +8196,7 @@
       <c r="D126">
         <v>0</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="8">
         <v>100</v>
       </c>
       <c r="F126">
@@ -8226,8 +8226,8 @@
       <c r="N126">
         <v>0</v>
       </c>
-      <c r="O126" s="9">
-        <v>150</v>
+      <c r="O126">
+        <v>0</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -8247,7 +8247,7 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" s="3">
-        <v>45848</v>
+        <v>45857</v>
       </c>
       <c r="B127" s="8">
         <v>100</v>
@@ -8288,8 +8288,8 @@
       <c r="N127">
         <v>0</v>
       </c>
-      <c r="O127" s="9">
-        <v>150</v>
+      <c r="O127">
+        <v>0</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" s="3">
-        <v>45849</v>
+        <v>45859</v>
       </c>
       <c r="B128" s="8">
         <v>100</v>
@@ -8350,8 +8350,8 @@
       <c r="N128">
         <v>0</v>
       </c>
-      <c r="O128" s="9">
-        <v>25</v>
+      <c r="O128">
+        <v>0</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -8371,10 +8371,10 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" s="3">
-        <v>45850</v>
+        <v>45860</v>
       </c>
       <c r="B129" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="130" spans="1:20">
       <c r="A130" s="3">
-        <v>45852</v>
+        <v>45861</v>
       </c>
       <c r="B130" s="8">
         <v>100</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" s="3">
-        <v>45853</v>
+        <v>45862</v>
       </c>
       <c r="B131" s="8">
         <v>100</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" s="3">
-        <v>45854</v>
+        <v>45863</v>
       </c>
       <c r="B132" s="8">
         <v>100</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" s="3">
-        <v>45855</v>
+        <v>45864</v>
       </c>
       <c r="B133" s="8">
         <v>100</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" s="3">
-        <v>45856</v>
+        <v>45866</v>
       </c>
       <c r="B134" s="8">
         <v>100</v>
@@ -8743,10 +8743,10 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" s="3">
-        <v>45857</v>
+        <v>45867</v>
       </c>
       <c r="B135" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" s="3">
-        <v>45859</v>
+        <v>45868</v>
       </c>
       <c r="B136" s="8">
         <v>100</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" s="3">
-        <v>45860</v>
+        <v>45869</v>
       </c>
       <c r="B137" s="8">
         <v>100</v>
@@ -8929,7 +8929,7 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" s="3">
-        <v>45861</v>
+        <v>45870</v>
       </c>
       <c r="B138" s="8">
         <v>100</v>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" s="3">
-        <v>45862</v>
+        <v>45871</v>
       </c>
       <c r="B139" s="8">
         <v>100</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" s="3">
-        <v>45863</v>
+        <v>45873</v>
       </c>
       <c r="B140" s="8">
         <v>100</v>
@@ -9115,10 +9115,10 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" s="3">
-        <v>45864</v>
+        <v>45874</v>
       </c>
       <c r="B141" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" s="3">
-        <v>45866</v>
+        <v>45875</v>
       </c>
       <c r="B142" s="8">
         <v>100</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" s="3">
-        <v>45867</v>
+        <v>45876</v>
       </c>
       <c r="B143" s="8">
         <v>100</v>
@@ -9301,7 +9301,7 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" s="3">
-        <v>45868</v>
+        <v>45877</v>
       </c>
       <c r="B144" s="8">
         <v>100</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" s="3">
-        <v>45869</v>
+        <v>45878</v>
       </c>
       <c r="B145" s="8">
         <v>100</v>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" s="3">
-        <v>45870</v>
+        <v>45880</v>
       </c>
       <c r="B146" s="8">
         <v>100</v>
@@ -9487,10 +9487,10 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" s="3">
-        <v>45871</v>
+        <v>45881</v>
       </c>
       <c r="B147" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" s="3">
-        <v>45873</v>
+        <v>45882</v>
       </c>
       <c r="B148" s="8">
         <v>100</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" s="3">
-        <v>45874</v>
+        <v>45883</v>
       </c>
       <c r="B149" s="8">
         <v>100</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" s="3">
-        <v>45875</v>
+        <v>45884</v>
       </c>
       <c r="B150" s="8">
         <v>100</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" s="3">
-        <v>45876</v>
+        <v>45885</v>
       </c>
       <c r="B151" s="8">
         <v>100</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" s="3">
-        <v>45877</v>
+        <v>45887</v>
       </c>
       <c r="B152" s="8">
         <v>100</v>
@@ -9859,10 +9859,10 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" s="3">
-        <v>45878</v>
+        <v>45888</v>
       </c>
       <c r="B153" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -9921,7 +9921,7 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" s="3">
-        <v>45880</v>
+        <v>45889</v>
       </c>
       <c r="B154" s="8">
         <v>100</v>
@@ -9983,9 +9983,9 @@
     </row>
     <row r="155" spans="1:20">
       <c r="A155" s="3">
-        <v>45881</v>
-      </c>
-      <c r="B155" s="8">
+        <v>45890</v>
+      </c>
+      <c r="B155" s="9">
         <v>100</v>
       </c>
       <c r="C155">
@@ -10045,9 +10045,9 @@
     </row>
     <row r="156" spans="1:20">
       <c r="A156" s="3">
-        <v>45882</v>
-      </c>
-      <c r="B156" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B156" s="9">
         <v>100</v>
       </c>
       <c r="C156">
@@ -10107,9 +10107,9 @@
     </row>
     <row r="157" spans="1:20">
       <c r="A157" s="3">
-        <v>45883</v>
-      </c>
-      <c r="B157" s="8">
+        <v>45892</v>
+      </c>
+      <c r="B157" s="9">
         <v>100</v>
       </c>
       <c r="C157">
@@ -10118,7 +10118,7 @@
       <c r="D157">
         <v>0</v>
       </c>
-      <c r="E157" s="8">
+      <c r="E157" s="9">
         <v>100</v>
       </c>
       <c r="F157">
@@ -10169,9 +10169,9 @@
     </row>
     <row r="158" spans="1:20">
       <c r="A158" s="3">
-        <v>45884</v>
-      </c>
-      <c r="B158" s="8">
+        <v>45894</v>
+      </c>
+      <c r="B158" s="9">
         <v>100</v>
       </c>
       <c r="C158">
@@ -10180,7 +10180,7 @@
       <c r="D158">
         <v>0</v>
       </c>
-      <c r="E158" s="8">
+      <c r="E158" s="9">
         <v>100</v>
       </c>
       <c r="F158">
@@ -10231,10 +10231,10 @@
     </row>
     <row r="159" spans="1:20">
       <c r="A159" s="3">
-        <v>45885</v>
-      </c>
-      <c r="B159" s="8">
-        <v>70</v>
+        <v>45895</v>
+      </c>
+      <c r="B159" s="9">
+        <v>100</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -10242,8 +10242,8 @@
       <c r="D159">
         <v>0</v>
       </c>
-      <c r="E159" s="8">
-        <v>70</v>
+      <c r="E159" s="9">
+        <v>100</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -10293,9 +10293,9 @@
     </row>
     <row r="160" spans="1:20">
       <c r="A160" s="3">
-        <v>45887</v>
-      </c>
-      <c r="B160" s="8">
+        <v>45896</v>
+      </c>
+      <c r="B160" s="9">
         <v>100</v>
       </c>
       <c r="C160">
@@ -10304,7 +10304,7 @@
       <c r="D160">
         <v>0</v>
       </c>
-      <c r="E160" s="8">
+      <c r="E160" s="9">
         <v>100</v>
       </c>
       <c r="F160">
@@ -10355,9 +10355,9 @@
     </row>
     <row r="161" spans="1:20">
       <c r="A161" s="3">
-        <v>45888</v>
-      </c>
-      <c r="B161" s="8">
+        <v>45897</v>
+      </c>
+      <c r="B161" s="9">
         <v>100</v>
       </c>
       <c r="C161">
@@ -10366,7 +10366,7 @@
       <c r="D161">
         <v>0</v>
       </c>
-      <c r="E161" s="8">
+      <c r="E161" s="9">
         <v>100</v>
       </c>
       <c r="F161">
@@ -10417,9 +10417,9 @@
     </row>
     <row r="162" spans="1:20">
       <c r="A162" s="3">
-        <v>45889</v>
-      </c>
-      <c r="B162" s="8">
+        <v>45898</v>
+      </c>
+      <c r="B162" s="9">
         <v>100</v>
       </c>
       <c r="C162">
@@ -10428,7 +10428,7 @@
       <c r="D162">
         <v>0</v>
       </c>
-      <c r="E162" s="8">
+      <c r="E162" s="9">
         <v>100</v>
       </c>
       <c r="F162">
@@ -10479,7 +10479,7 @@
     </row>
     <row r="163" spans="1:20">
       <c r="A163" s="3">
-        <v>45890</v>
+        <v>45899</v>
       </c>
       <c r="B163" s="9">
         <v>100</v>
@@ -10490,7 +10490,7 @@
       <c r="D163">
         <v>0</v>
       </c>
-      <c r="E163" s="8">
+      <c r="E163" s="9">
         <v>100</v>
       </c>
       <c r="F163">
@@ -10541,7 +10541,7 @@
     </row>
     <row r="164" spans="1:20">
       <c r="A164" s="3">
-        <v>45891</v>
+        <v>45901</v>
       </c>
       <c r="B164" s="9">
         <v>100</v>
@@ -10552,7 +10552,7 @@
       <c r="D164">
         <v>0</v>
       </c>
-      <c r="E164" s="8">
+      <c r="E164" s="9">
         <v>100</v>
       </c>
       <c r="F164">
@@ -10603,10 +10603,10 @@
     </row>
     <row r="165" spans="1:20">
       <c r="A165" s="3">
-        <v>45892</v>
+        <v>45902</v>
       </c>
       <c r="B165" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="166" spans="1:20">
       <c r="A166" s="3">
-        <v>45894</v>
+        <v>45903</v>
       </c>
       <c r="B166" s="9">
         <v>100</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="167" spans="1:20">
       <c r="A167" s="3">
-        <v>45895</v>
+        <v>45904</v>
       </c>
       <c r="B167" s="9">
         <v>100</v>
@@ -10789,7 +10789,7 @@
     </row>
     <row r="168" spans="1:20">
       <c r="A168" s="3">
-        <v>45896</v>
+        <v>45905</v>
       </c>
       <c r="B168" s="9">
         <v>100</v>
@@ -10851,7 +10851,7 @@
     </row>
     <row r="169" spans="1:20">
       <c r="A169" s="3">
-        <v>45897</v>
+        <v>45906</v>
       </c>
       <c r="B169" s="9">
         <v>100</v>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="170" spans="1:20">
       <c r="A170" s="3">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="B170" s="9">
         <v>100</v>
@@ -10975,10 +10975,10 @@
     </row>
     <row r="171" spans="1:20">
       <c r="A171" s="3">
-        <v>45899</v>
+        <v>45909</v>
       </c>
       <c r="B171" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -11037,7 +11037,7 @@
     </row>
     <row r="172" spans="1:20">
       <c r="A172" s="3">
-        <v>45901</v>
+        <v>45910</v>
       </c>
       <c r="B172" s="9">
         <v>100</v>
@@ -11099,7 +11099,7 @@
     </row>
     <row r="173" spans="1:20">
       <c r="A173" s="3">
-        <v>45902</v>
+        <v>45911</v>
       </c>
       <c r="B173" s="9">
         <v>100</v>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="174" spans="1:20">
       <c r="A174" s="3">
-        <v>45903</v>
+        <v>45912</v>
       </c>
       <c r="B174" s="9">
         <v>100</v>
@@ -11223,7 +11223,7 @@
     </row>
     <row r="175" spans="1:20">
       <c r="A175" s="3">
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="B175" s="9">
         <v>100</v>
@@ -11285,10 +11285,10 @@
     </row>
     <row r="176" spans="1:20">
       <c r="A176" s="3">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="B176" s="9">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -11347,10 +11347,10 @@
     </row>
     <row r="177" spans="1:20">
       <c r="A177" s="3">
-        <v>45906</v>
-      </c>
-      <c r="B177" s="9">
-        <v>70</v>
+        <v>45916</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -11359,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="E177" s="9">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -11404,626 +11404,6 @@
         <v>0</v>
       </c>
       <c r="T177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20">
-      <c r="A178" s="3">
-        <v>45908</v>
-      </c>
-      <c r="B178" s="9">
-        <v>100</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178" s="9">
-        <v>100</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-      <c r="M178">
-        <v>0</v>
-      </c>
-      <c r="N178">
-        <v>0</v>
-      </c>
-      <c r="O178">
-        <v>0</v>
-      </c>
-      <c r="P178">
-        <v>0</v>
-      </c>
-      <c r="Q178">
-        <v>0</v>
-      </c>
-      <c r="R178">
-        <v>0</v>
-      </c>
-      <c r="S178">
-        <v>0</v>
-      </c>
-      <c r="T178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20">
-      <c r="A179" s="3">
-        <v>45909</v>
-      </c>
-      <c r="B179" s="9">
-        <v>100</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179" s="9">
-        <v>100</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-      <c r="M179">
-        <v>0</v>
-      </c>
-      <c r="N179">
-        <v>0</v>
-      </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-      <c r="P179">
-        <v>0</v>
-      </c>
-      <c r="Q179">
-        <v>0</v>
-      </c>
-      <c r="R179">
-        <v>0</v>
-      </c>
-      <c r="S179">
-        <v>0</v>
-      </c>
-      <c r="T179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:20">
-      <c r="A180" s="3">
-        <v>45910</v>
-      </c>
-      <c r="B180" s="9">
-        <v>100</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180" s="9">
-        <v>100</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-      <c r="M180">
-        <v>0</v>
-      </c>
-      <c r="N180">
-        <v>0</v>
-      </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-      <c r="P180">
-        <v>0</v>
-      </c>
-      <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>0</v>
-      </c>
-      <c r="S180">
-        <v>0</v>
-      </c>
-      <c r="T180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20">
-      <c r="A181" s="3">
-        <v>45911</v>
-      </c>
-      <c r="B181" s="9">
-        <v>100</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181" s="9">
-        <v>100</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181">
-        <v>0</v>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-      <c r="M181">
-        <v>0</v>
-      </c>
-      <c r="N181">
-        <v>0</v>
-      </c>
-      <c r="O181">
-        <v>0</v>
-      </c>
-      <c r="P181">
-        <v>0</v>
-      </c>
-      <c r="Q181">
-        <v>0</v>
-      </c>
-      <c r="R181">
-        <v>0</v>
-      </c>
-      <c r="S181">
-        <v>0</v>
-      </c>
-      <c r="T181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20">
-      <c r="A182" s="3">
-        <v>45912</v>
-      </c>
-      <c r="B182" s="9">
-        <v>100</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182" s="9">
-        <v>100</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>0</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182">
-        <v>0</v>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-      <c r="M182">
-        <v>0</v>
-      </c>
-      <c r="N182">
-        <v>0</v>
-      </c>
-      <c r="O182">
-        <v>0</v>
-      </c>
-      <c r="P182">
-        <v>0</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182">
-        <v>0</v>
-      </c>
-      <c r="S182">
-        <v>0</v>
-      </c>
-      <c r="T182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20">
-      <c r="A183" s="3">
-        <v>45913</v>
-      </c>
-      <c r="B183" s="9">
-        <v>70</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183" s="9">
-        <v>70</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>0</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <v>0</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-      <c r="M183">
-        <v>0</v>
-      </c>
-      <c r="N183">
-        <v>0</v>
-      </c>
-      <c r="O183">
-        <v>0</v>
-      </c>
-      <c r="P183">
-        <v>0</v>
-      </c>
-      <c r="Q183">
-        <v>0</v>
-      </c>
-      <c r="R183">
-        <v>0</v>
-      </c>
-      <c r="S183">
-        <v>0</v>
-      </c>
-      <c r="T183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20">
-      <c r="A184" s="3">
-        <v>45915</v>
-      </c>
-      <c r="B184" s="9">
-        <v>100</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184" s="9">
-        <v>100</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184">
-        <v>0</v>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-      <c r="M184">
-        <v>0</v>
-      </c>
-      <c r="N184">
-        <v>0</v>
-      </c>
-      <c r="O184">
-        <v>0</v>
-      </c>
-      <c r="P184">
-        <v>0</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>0</v>
-      </c>
-      <c r="S184">
-        <v>0</v>
-      </c>
-      <c r="T184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20">
-      <c r="A185" s="3">
-        <v>45916</v>
-      </c>
-      <c r="B185" s="9">
-        <v>87</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185" s="9">
-        <v>100</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185">
-        <v>0</v>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-      <c r="M185">
-        <v>0</v>
-      </c>
-      <c r="N185">
-        <v>0</v>
-      </c>
-      <c r="O185">
-        <v>0</v>
-      </c>
-      <c r="P185">
-        <v>0</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>0</v>
-      </c>
-      <c r="S185">
-        <v>0</v>
-      </c>
-      <c r="T185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20">
-      <c r="A186" s="3">
-        <v>45917</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186" s="9">
-        <v>100</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="K186">
-        <v>0</v>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-      <c r="M186">
-        <v>0</v>
-      </c>
-      <c r="N186">
-        <v>0</v>
-      </c>
-      <c r="O186">
-        <v>0</v>
-      </c>
-      <c r="P186">
-        <v>0</v>
-      </c>
-      <c r="Q186">
-        <v>0</v>
-      </c>
-      <c r="R186">
-        <v>0</v>
-      </c>
-      <c r="S186">
-        <v>0</v>
-      </c>
-      <c r="T186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20">
-      <c r="A187" s="3">
-        <v>45918</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187" s="9">
-        <v>26</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-      <c r="M187">
-        <v>0</v>
-      </c>
-      <c r="N187">
-        <v>0</v>
-      </c>
-      <c r="O187">
-        <v>0</v>
-      </c>
-      <c r="P187">
-        <v>0</v>
-      </c>
-      <c r="Q187">
-        <v>0</v>
-      </c>
-      <c r="R187">
-        <v>0</v>
-      </c>
-      <c r="S187">
-        <v>0</v>
-      </c>
-      <c r="T187">
         <v>0</v>
       </c>
     </row>

--- a/outputs/daily_schedule.xlsx
+++ b/outputs/daily_schedule.xlsx
@@ -497,7 +497,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="3">
-        <v>45712</v>
+        <v>45715</v>
       </c>
       <c r="B2" s="4">
         <v>100</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="3">
-        <v>45713</v>
+        <v>45716</v>
       </c>
       <c r="B3" s="4">
         <v>100</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="3">
-        <v>45714</v>
+        <v>45717</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="3">
-        <v>45715</v>
+        <v>45719</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3">
-        <v>45716</v>
+        <v>45720</v>
       </c>
       <c r="B6" s="4">
         <v>100</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3">
-        <v>45717</v>
+        <v>45721</v>
       </c>
       <c r="B7" s="4">
         <v>100</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="3">
-        <v>45719</v>
+        <v>45722</v>
       </c>
       <c r="B8" s="4">
         <v>100</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="3">
-        <v>45720</v>
+        <v>45723</v>
       </c>
       <c r="B9" s="4">
         <v>100</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="3">
-        <v>45721</v>
+        <v>45724</v>
       </c>
       <c r="B10" s="4">
         <v>100</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="3">
-        <v>45722</v>
+        <v>45726</v>
       </c>
       <c r="B11" s="4">
         <v>100</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="3">
-        <v>45723</v>
+        <v>45727</v>
       </c>
       <c r="B12" s="4">
         <v>100</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="3">
-        <v>45724</v>
+        <v>45728</v>
       </c>
       <c r="B13" s="4">
         <v>100</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="3">
-        <v>45726</v>
+        <v>45729</v>
       </c>
       <c r="B14" s="4">
         <v>100</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="3">
-        <v>45727</v>
+        <v>45730</v>
       </c>
       <c r="B15" s="4">
         <v>100</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="3">
-        <v>45728</v>
+        <v>45731</v>
       </c>
       <c r="B16" s="4">
         <v>100</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="3">
-        <v>45729</v>
+        <v>45733</v>
       </c>
       <c r="B17" s="4">
         <v>100</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="3">
-        <v>45730</v>
+        <v>45734</v>
       </c>
       <c r="B18" s="4">
         <v>100</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="3">
-        <v>45731</v>
+        <v>45735</v>
       </c>
       <c r="B19" s="4">
         <v>100</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="3">
-        <v>45733</v>
+        <v>45736</v>
       </c>
       <c r="B20" s="4">
         <v>100</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="3">
-        <v>45734</v>
+        <v>45737</v>
       </c>
       <c r="B21" s="4">
         <v>100</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="3">
-        <v>45735</v>
+        <v>45738</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="3">
-        <v>45736</v>
+        <v>45740</v>
       </c>
       <c r="B23" s="4">
         <v>100</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="3">
-        <v>45737</v>
+        <v>45741</v>
       </c>
       <c r="B24" s="4">
         <v>100</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="3">
-        <v>45738</v>
+        <v>45742</v>
       </c>
       <c r="B25" s="4">
         <v>100</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="3">
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="B26" s="4">
         <v>100</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="3">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="B27" s="4">
         <v>100</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="3">
-        <v>45742</v>
+        <v>45745</v>
       </c>
       <c r="B28" s="4">
         <v>100</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="3">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="B29" s="4">
         <v>100</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="3">
-        <v>45744</v>
+        <v>45748</v>
       </c>
       <c r="B30" s="4">
         <v>100</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="3">
-        <v>45745</v>
+        <v>45749</v>
       </c>
       <c r="B31" s="4">
         <v>100</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="3">
-        <v>45747</v>
+        <v>45750</v>
       </c>
       <c r="B32" s="5">
         <v>100</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="3">
-        <v>45748</v>
+        <v>45751</v>
       </c>
       <c r="B33" s="5">
         <v>100</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="3">
-        <v>45749</v>
+        <v>45752</v>
       </c>
       <c r="B34" s="5">
         <v>100</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="3">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="B35" s="5">
         <v>100</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="3">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="B36" s="5">
         <v>100</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="3">
-        <v>45752</v>
+        <v>45756</v>
       </c>
       <c r="B37" s="5">
         <v>100</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="3">
-        <v>45754</v>
+        <v>45757</v>
       </c>
       <c r="B38" s="5">
         <v>100</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="3">
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="B39" s="5">
         <v>100</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="3">
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="B40" s="5">
         <v>100</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="3">
-        <v>45757</v>
+        <v>45761</v>
       </c>
       <c r="B41" s="5">
         <v>100</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="3">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="B42" s="5">
         <v>100</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="3">
-        <v>45759</v>
+        <v>45763</v>
       </c>
       <c r="B43" s="5">
         <v>100</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="3">
-        <v>45761</v>
+        <v>45764</v>
       </c>
       <c r="B44" s="5">
         <v>100</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="3">
-        <v>45762</v>
+        <v>45765</v>
       </c>
       <c r="B45" s="5">
         <v>100</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="3">
-        <v>45763</v>
+        <v>45766</v>
       </c>
       <c r="B46" s="5">
         <v>100</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="3">
-        <v>45764</v>
+        <v>45768</v>
       </c>
       <c r="B47" s="5">
         <v>100</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="3">
-        <v>45765</v>
+        <v>45769</v>
       </c>
       <c r="B48" s="5">
         <v>100</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="3">
-        <v>45766</v>
+        <v>45770</v>
       </c>
       <c r="B49" s="5">
         <v>100</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="3">
-        <v>45768</v>
+        <v>45771</v>
       </c>
       <c r="B50" s="5">
         <v>100</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="3">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="B51" s="5">
         <v>100</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="3">
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="B52" s="5">
         <v>100</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="3">
-        <v>45771</v>
+        <v>45775</v>
       </c>
       <c r="B53" s="5">
         <v>100</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="3">
-        <v>45772</v>
+        <v>45776</v>
       </c>
       <c r="B54" s="5">
         <v>100</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="3">
-        <v>45773</v>
+        <v>45777</v>
       </c>
       <c r="B55" s="5">
         <v>100</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="3">
-        <v>45775</v>
+        <v>45778</v>
       </c>
       <c r="B56" s="5">
         <v>100</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="3">
-        <v>45776</v>
+        <v>45779</v>
       </c>
       <c r="B57" s="5">
         <v>100</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="3">
-        <v>45777</v>
+        <v>45780</v>
       </c>
       <c r="B58" s="5">
         <v>100</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="3">
-        <v>45778</v>
+        <v>45782</v>
       </c>
       <c r="B59" s="5">
         <v>100</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="3">
-        <v>45779</v>
+        <v>45783</v>
       </c>
       <c r="B60" s="5">
         <v>100</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="3">
-        <v>45780</v>
+        <v>45784</v>
       </c>
       <c r="B61" s="5">
         <v>100</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="3">
-        <v>45782</v>
+        <v>45785</v>
       </c>
       <c r="B62" s="5">
         <v>100</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="3">
-        <v>45783</v>
+        <v>45786</v>
       </c>
       <c r="B63" s="5">
         <v>100</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="3">
-        <v>45784</v>
+        <v>45787</v>
       </c>
       <c r="B64" s="5">
         <v>100</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="3">
-        <v>45785</v>
+        <v>45789</v>
       </c>
       <c r="B65" s="5">
         <v>100</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="3">
-        <v>45786</v>
+        <v>45790</v>
       </c>
       <c r="B66" s="5">
         <v>100</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="3">
-        <v>45787</v>
+        <v>45791</v>
       </c>
       <c r="B67" s="5">
         <v>100</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="3">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="B68" s="5">
         <v>100</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="3">
-        <v>45790</v>
+        <v>45793</v>
       </c>
       <c r="B69" s="6">
         <v>100</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="3">
-        <v>45791</v>
+        <v>45794</v>
       </c>
       <c r="B70" s="6">
         <v>100</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="3">
-        <v>45792</v>
+        <v>45796</v>
       </c>
       <c r="B71" s="6">
         <v>100</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="3">
-        <v>45793</v>
+        <v>45797</v>
       </c>
       <c r="B72" s="6">
         <v>100</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="3">
-        <v>45794</v>
+        <v>45798</v>
       </c>
       <c r="B73" s="6">
         <v>100</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="3">
-        <v>45796</v>
+        <v>45799</v>
       </c>
       <c r="B74" s="6">
         <v>100</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="3">
-        <v>45797</v>
+        <v>45800</v>
       </c>
       <c r="B75" s="6">
         <v>100</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="3">
-        <v>45798</v>
+        <v>45801</v>
       </c>
       <c r="B76" s="6">
         <v>100</v>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="3">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="B77" s="6">
         <v>100</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="3">
-        <v>45800</v>
+        <v>45804</v>
       </c>
       <c r="B78" s="6">
         <v>100</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="3">
-        <v>45801</v>
+        <v>45805</v>
       </c>
       <c r="B79" s="6">
         <v>100</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="3">
-        <v>45803</v>
+        <v>45806</v>
       </c>
       <c r="B80" s="6">
         <v>100</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="3">
-        <v>45804</v>
+        <v>45807</v>
       </c>
       <c r="B81" s="6">
         <v>100</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="3">
-        <v>45805</v>
+        <v>45808</v>
       </c>
       <c r="B82" s="6">
         <v>100</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="3">
-        <v>45806</v>
+        <v>45810</v>
       </c>
       <c r="B83" s="6">
         <v>100</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="3">
-        <v>45807</v>
+        <v>45811</v>
       </c>
       <c r="B84" s="6">
         <v>100</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="3">
-        <v>45808</v>
+        <v>45812</v>
       </c>
       <c r="B85" s="6">
         <v>100</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="3">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B86" s="6">
         <v>100</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="3">
-        <v>45811</v>
+        <v>45814</v>
       </c>
       <c r="B87" s="6">
         <v>100</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="3">
-        <v>45812</v>
+        <v>45815</v>
       </c>
       <c r="B88" s="6">
         <v>100</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="3">
-        <v>45813</v>
+        <v>45817</v>
       </c>
       <c r="B89" s="6">
         <v>100</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="3">
-        <v>45814</v>
+        <v>45818</v>
       </c>
       <c r="B90" s="6">
         <v>100</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="3">
-        <v>45815</v>
+        <v>45819</v>
       </c>
       <c r="B91" s="6">
         <v>100</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="3">
-        <v>45817</v>
+        <v>45820</v>
       </c>
       <c r="B92" s="6">
         <v>100</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="3">
-        <v>45818</v>
+        <v>45821</v>
       </c>
       <c r="B93" s="6">
         <v>100</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="3">
-        <v>45819</v>
+        <v>45822</v>
       </c>
       <c r="B94" s="6">
         <v>100</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="3">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B95" s="6">
         <v>100</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="3">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B96" s="6">
         <v>100</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="3">
-        <v>45822</v>
+        <v>45826</v>
       </c>
       <c r="B97" s="6">
         <v>100</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="3">
-        <v>45824</v>
+        <v>45827</v>
       </c>
       <c r="B98" s="6">
         <v>100</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="3">
-        <v>45825</v>
+        <v>45828</v>
       </c>
       <c r="B99" s="6">
         <v>100</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="3">
-        <v>45826</v>
+        <v>45829</v>
       </c>
       <c r="B100" s="7">
         <v>100</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="3">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B101" s="7">
         <v>100</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="3">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B102" s="7">
         <v>100</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="3">
-        <v>45829</v>
+        <v>45833</v>
       </c>
       <c r="B103" s="7">
         <v>100</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="3">
-        <v>45831</v>
+        <v>45834</v>
       </c>
       <c r="B104" s="7">
         <v>100</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="3">
-        <v>45832</v>
+        <v>45835</v>
       </c>
       <c r="B105" s="7">
         <v>100</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="3">
-        <v>45833</v>
+        <v>45836</v>
       </c>
       <c r="B106" s="7">
         <v>100</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="3">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B107" s="7">
         <v>100</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="3">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B108" s="7">
         <v>100</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="3">
-        <v>45836</v>
+        <v>45840</v>
       </c>
       <c r="B109" s="7">
         <v>100</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="3">
-        <v>45838</v>
+        <v>45841</v>
       </c>
       <c r="B110" s="7">
         <v>100</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="3">
-        <v>45839</v>
+        <v>45842</v>
       </c>
       <c r="B111" s="7">
         <v>100</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="3">
-        <v>45840</v>
+        <v>45843</v>
       </c>
       <c r="B112" s="7">
         <v>100</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="3">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B113" s="7">
         <v>100</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="3">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B114" s="7">
         <v>100</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="3">
-        <v>45843</v>
+        <v>45847</v>
       </c>
       <c r="B115" s="7">
         <v>100</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="3">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B116" s="7">
         <v>100</v>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="3">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B117" s="7">
         <v>100</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" s="3">
-        <v>45847</v>
+        <v>45850</v>
       </c>
       <c r="B118" s="7">
         <v>100</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" s="3">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B119" s="8">
         <v>100</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" s="3">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B120" s="8">
         <v>100</v>
@@ -7875,7 +7875,7 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" s="3">
-        <v>45850</v>
+        <v>45854</v>
       </c>
       <c r="B121" s="8">
         <v>100</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" s="3">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B122" s="8">
         <v>100</v>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" s="3">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B123" s="8">
         <v>100</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" s="3">
-        <v>45854</v>
+        <v>45857</v>
       </c>
       <c r="B124" s="8">
         <v>100</v>
@@ -8123,7 +8123,7 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" s="3">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B125" s="8">
         <v>100</v>
@@ -8185,7 +8185,7 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" s="3">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B126" s="8">
         <v>100</v>
@@ -8247,7 +8247,7 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" s="3">
-        <v>45857</v>
+        <v>45861</v>
       </c>
       <c r="B127" s="8">
         <v>100</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" s="3">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B128" s="8">
         <v>100</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" s="3">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B129" s="8">
         <v>100</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="130" spans="1:20">
       <c r="A130" s="3">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B130" s="8">
         <v>100</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" s="3">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B131" s="8">
         <v>100</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" s="3">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B132" s="8">
         <v>100</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" s="3">
-        <v>45864</v>
+        <v>45868</v>
       </c>
       <c r="B133" s="8">
         <v>100</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" s="3">
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="B134" s="8">
         <v>100</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" s="3">
-        <v>45867</v>
+        <v>45870</v>
       </c>
       <c r="B135" s="8">
         <v>100</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" s="3">
-        <v>45868</v>
+        <v>45871</v>
       </c>
       <c r="B136" s="8">
         <v>100</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" s="3">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B137" s="8">
         <v>100</v>
@@ -8929,7 +8929,7 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" s="3">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B138" s="8">
         <v>100</v>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" s="3">
-        <v>45871</v>
+        <v>45875</v>
       </c>
       <c r="B139" s="8">
         <v>100</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" s="3">
-        <v>45873</v>
+        <v>45876</v>
       </c>
       <c r="B140" s="8">
         <v>100</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" s="3">
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="B141" s="8">
         <v>100</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" s="3">
-        <v>45875</v>
+        <v>45878</v>
       </c>
       <c r="B142" s="8">
         <v>100</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" s="3">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B143" s="8">
         <v>100</v>
@@ -9301,7 +9301,7 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" s="3">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B144" s="8">
         <v>100</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" s="3">
-        <v>45878</v>
+        <v>45882</v>
       </c>
       <c r="B145" s="8">
         <v>100</v>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" s="3">
-        <v>45880</v>
+        <v>45883</v>
       </c>
       <c r="B146" s="8">
         <v>100</v>
@@ -9487,7 +9487,7 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" s="3">
-        <v>45881</v>
+        <v>45884</v>
       </c>
       <c r="B147" s="8">
         <v>100</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" s="3">
-        <v>45882</v>
+        <v>45885</v>
       </c>
       <c r="B148" s="8">
         <v>100</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" s="3">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B149" s="8">
         <v>100</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" s="3">
-        <v>45884</v>
+        <v>45888</v>
       </c>
       <c r="B150" s="8">
         <v>100</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" s="3">
-        <v>45885</v>
+        <v>45889</v>
       </c>
       <c r="B151" s="8">
         <v>100</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" s="3">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="B152" s="8">
         <v>100</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" s="3">
-        <v>45888</v>
+        <v>45891</v>
       </c>
       <c r="B153" s="8">
         <v>100</v>
@@ -9921,7 +9921,7 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" s="3">
-        <v>45889</v>
+        <v>45892</v>
       </c>
       <c r="B154" s="8">
         <v>100</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="155" spans="1:20">
       <c r="A155" s="3">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B155" s="9">
         <v>100</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="156" spans="1:20">
       <c r="A156" s="3">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B156" s="9">
         <v>100</v>
@@ -10107,7 +10107,7 @@
     </row>
     <row r="157" spans="1:20">
       <c r="A157" s="3">
-        <v>45892</v>
+        <v>45896</v>
       </c>
       <c r="B157" s="9">
         <v>100</v>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="158" spans="1:20">
       <c r="A158" s="3">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="B158" s="9">
         <v>100</v>
@@ -10231,7 +10231,7 @@
     </row>
     <row r="159" spans="1:20">
       <c r="A159" s="3">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="B159" s="9">
         <v>100</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="160" spans="1:20">
       <c r="A160" s="3">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="B160" s="9">
         <v>100</v>
@@ -10355,7 +10355,7 @@
     </row>
     <row r="161" spans="1:20">
       <c r="A161" s="3">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B161" s="9">
         <v>100</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="162" spans="1:20">
       <c r="A162" s="3">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B162" s="9">
         <v>100</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="163" spans="1:20">
       <c r="A163" s="3">
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="B163" s="9">
         <v>100</v>
@@ -10541,7 +10541,7 @@
     </row>
     <row r="164" spans="1:20">
       <c r="A164" s="3">
-        <v>45901</v>
+        <v>45904</v>
       </c>
       <c r="B164" s="9">
         <v>100</v>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="165" spans="1:20">
       <c r="A165" s="3">
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="B165" s="9">
         <v>100</v>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="166" spans="1:20">
       <c r="A166" s="3">
-        <v>45903</v>
+        <v>45906</v>
       </c>
       <c r="B166" s="9">
         <v>100</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="167" spans="1:20">
       <c r="A167" s="3">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B167" s="9">
         <v>100</v>
@@ -10789,7 +10789,7 @@
     </row>
     <row r="168" spans="1:20">
       <c r="A168" s="3">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B168" s="9">
         <v>100</v>
@@ -10851,7 +10851,7 @@
     </row>
     <row r="169" spans="1:20">
       <c r="A169" s="3">
-        <v>45906</v>
+        <v>45910</v>
       </c>
       <c r="B169" s="9">
         <v>100</v>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="170" spans="1:20">
       <c r="A170" s="3">
-        <v>45908</v>
+        <v>45911</v>
       </c>
       <c r="B170" s="9">
         <v>100</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="171" spans="1:20">
       <c r="A171" s="3">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="B171" s="9">
         <v>100</v>
@@ -11037,7 +11037,7 @@
     </row>
     <row r="172" spans="1:20">
       <c r="A172" s="3">
-        <v>45910</v>
+        <v>45913</v>
       </c>
       <c r="B172" s="9">
         <v>100</v>
@@ -11099,7 +11099,7 @@
     </row>
     <row r="173" spans="1:20">
       <c r="A173" s="3">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B173" s="9">
         <v>100</v>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="174" spans="1:20">
       <c r="A174" s="3">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B174" s="9">
         <v>100</v>
@@ -11223,7 +11223,7 @@
     </row>
     <row r="175" spans="1:20">
       <c r="A175" s="3">
-        <v>45913</v>
+        <v>45917</v>
       </c>
       <c r="B175" s="9">
         <v>100</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="176" spans="1:20">
       <c r="A176" s="3">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="B176" s="9">
         <v>57</v>
@@ -11347,7 +11347,7 @@
     </row>
     <row r="177" spans="1:20">
       <c r="A177" s="3">
-        <v>45916</v>
+        <v>45919</v>
       </c>
       <c r="B177">
         <v>0</v>
